--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3914,6 +3914,12 @@
       <c r="F98" s="1">
         <v>1</v>
       </c>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -3934,6 +3940,12 @@
       <c r="F99" s="1">
         <v>1</v>
       </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
@@ -3954,6 +3966,9 @@
       <c r="F100" s="1">
         <v>1</v>
       </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -3972,6 +3987,9 @@
         <v>123</v>
       </c>
       <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4093,7 +4111,9 @@
       <c r="H106" s="4">
         <v>1</v>
       </c>
-      <c r="I106" s="4"/>
+      <c r="I106" s="4">
+        <v>1</v>
+      </c>
       <c r="J106" s="4">
         <v>1</v>
       </c>
@@ -4121,7 +4141,9 @@
       <c r="H107" s="4">
         <v>1</v>
       </c>
-      <c r="I107" s="4"/>
+      <c r="I107" s="4">
+        <v>1</v>
+      </c>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -4225,6 +4247,9 @@
       <c r="E112" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -4362,7 +4387,9 @@
       <c r="G119" s="4">
         <v>1</v>
       </c>
-      <c r="H119" s="4"/>
+      <c r="H119" s="4">
+        <v>1</v>
+      </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
@@ -4528,6 +4555,9 @@
       <c r="G126" s="1">
         <v>1</v>
       </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -4551,6 +4581,9 @@
       <c r="G127" s="1">
         <v>1</v>
       </c>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -4622,7 +4655,9 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
+      <c r="I131" s="4">
+        <v>1</v>
+      </c>
       <c r="J131" s="4"/>
     </row>
     <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -4648,7 +4683,9 @@
         <v>1</v>
       </c>
       <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
+      <c r="I132" s="4">
+        <v>1</v>
+      </c>
       <c r="J132" s="4"/>
     </row>
     <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -4975,7 +5012,9 @@
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
+      <c r="I146" s="4">
+        <v>1</v>
+      </c>
       <c r="J146" s="4">
         <v>1</v>
       </c>
@@ -5027,7 +5066,9 @@
       </c>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
+      <c r="I148" s="4">
+        <v>1</v>
+      </c>
       <c r="J148" s="4"/>
     </row>
     <row r="149" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -5053,7 +5094,9 @@
         <v>1</v>
       </c>
       <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
+      <c r="I149" s="4">
+        <v>1</v>
+      </c>
       <c r="J149" s="4"/>
     </row>
     <row r="150" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -5077,7 +5120,9 @@
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
+      <c r="I150" s="4">
+        <v>1</v>
+      </c>
       <c r="J150" s="4"/>
     </row>
     <row r="151" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -5121,6 +5166,12 @@
       <c r="F152" s="1">
         <v>1</v>
       </c>
+      <c r="H152" s="1">
+        <v>1</v>
+      </c>
+      <c r="I152" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -5164,6 +5215,9 @@
       <c r="F154" s="1">
         <v>1</v>
       </c>
+      <c r="I154" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -5184,6 +5238,9 @@
       <c r="F155" s="1">
         <v>1</v>
       </c>
+      <c r="H155" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
@@ -5204,6 +5261,12 @@
       <c r="F156" s="1">
         <v>1</v>
       </c>
+      <c r="H156" s="1">
+        <v>1</v>
+      </c>
+      <c r="I156" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
@@ -5227,6 +5290,9 @@
       <c r="G157" s="1">
         <v>1</v>
       </c>
+      <c r="H157" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -5250,6 +5316,9 @@
       <c r="G158" s="1">
         <v>1</v>
       </c>
+      <c r="H158" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
@@ -5307,8 +5376,12 @@
       <c r="G161" s="4">
         <v>1</v>
       </c>
-      <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
+      <c r="H161" s="4">
+        <v>1</v>
+      </c>
+      <c r="I161" s="4">
+        <v>1</v>
+      </c>
       <c r="J161" s="4"/>
     </row>
     <row r="162" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -5333,8 +5406,12 @@
       <c r="G162" s="4">
         <v>1</v>
       </c>
-      <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
+      <c r="H162" s="4">
+        <v>1</v>
+      </c>
+      <c r="I162" s="4">
+        <v>1</v>
+      </c>
       <c r="J162" s="4"/>
     </row>
     <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -5360,7 +5437,9 @@
         <v>1</v>
       </c>
       <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
+      <c r="I163" s="4">
+        <v>1</v>
+      </c>
       <c r="J163" s="4"/>
     </row>
     <row r="164" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -5384,7 +5463,9 @@
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
+      <c r="I164" s="4">
+        <v>1</v>
+      </c>
       <c r="J164" s="4"/>
     </row>
     <row r="165" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -5408,7 +5489,9 @@
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
+      <c r="I165" s="4">
+        <v>1</v>
+      </c>
       <c r="J165" s="4"/>
     </row>
     <row r="166" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -5431,8 +5514,12 @@
       <c r="G166" s="4">
         <v>1</v>
       </c>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
+      <c r="H166" s="4">
+        <v>1</v>
+      </c>
+      <c r="I166" s="4">
+        <v>1</v>
+      </c>
       <c r="J166" s="4"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5458,7 +5545,9 @@
         <v>1</v>
       </c>
       <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
+      <c r="I167" s="4">
+        <v>1</v>
+      </c>
       <c r="J167" s="4"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5486,7 +5575,9 @@
       <c r="H168" s="4">
         <v>1</v>
       </c>
-      <c r="I168" s="4"/>
+      <c r="I168" s="4">
+        <v>1</v>
+      </c>
       <c r="J168" s="4"/>
     </row>
     <row r="169" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -5512,7 +5603,9 @@
       <c r="H169" s="4">
         <v>1</v>
       </c>
-      <c r="I169" s="4"/>
+      <c r="I169" s="4">
+        <v>1</v>
+      </c>
       <c r="J169" s="4"/>
     </row>
     <row r="170" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -5540,7 +5633,9 @@
       <c r="H170" s="4">
         <v>1</v>
       </c>
-      <c r="I170" s="4"/>
+      <c r="I170" s="4">
+        <v>1</v>
+      </c>
       <c r="J170" s="4"/>
     </row>
     <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -5568,7 +5663,9 @@
       <c r="H171" s="4">
         <v>1</v>
       </c>
-      <c r="I171" s="4"/>
+      <c r="I171" s="4">
+        <v>1</v>
+      </c>
       <c r="J171" s="4"/>
     </row>
     <row r="172" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -5596,7 +5693,9 @@
       <c r="H172" s="4">
         <v>1</v>
       </c>
-      <c r="I172" s="4"/>
+      <c r="I172" s="4">
+        <v>1</v>
+      </c>
       <c r="J172" s="4"/>
     </row>
     <row r="173" spans="1:10" ht="45" x14ac:dyDescent="0.25">

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1407,7 +1407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,8 +1429,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1446,6 +1453,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -1479,12 +1491,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1497,16 +1510,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1787,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="H174" sqref="H174"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="I426" sqref="I426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,6 +5754,9 @@
       <c r="F174" s="1">
         <v>1</v>
       </c>
+      <c r="H174" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
@@ -5755,6 +5773,9 @@
       </c>
       <c r="E175" s="3" t="s">
         <v>201</v>
+      </c>
+      <c r="H175" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -5907,6 +5928,9 @@
       <c r="H182" s="1">
         <v>1</v>
       </c>
+      <c r="I182" s="1">
+        <v>1</v>
+      </c>
       <c r="J182" s="1">
         <v>1</v>
       </c>
@@ -6004,7 +6028,9 @@
       </c>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
-      <c r="J186" s="4"/>
+      <c r="J186" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
@@ -6126,7 +6152,9 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
+      <c r="J192" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="193" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
@@ -6147,6 +6175,9 @@
       <c r="F193" s="1">
         <v>1</v>
       </c>
+      <c r="H193" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -6167,6 +6198,9 @@
       <c r="F194" s="1">
         <v>1</v>
       </c>
+      <c r="H194" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
@@ -6187,6 +6221,9 @@
       <c r="F195" s="1">
         <v>1</v>
       </c>
+      <c r="H195" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
@@ -6204,6 +6241,9 @@
       <c r="E196" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="H196" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
@@ -6224,6 +6264,9 @@
       <c r="F197" s="1">
         <v>1</v>
       </c>
+      <c r="H197" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
@@ -6241,6 +6284,9 @@
       <c r="E198" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="H198" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
@@ -6258,6 +6304,9 @@
       <c r="E199" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="H199" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
@@ -6353,8 +6402,12 @@
         <v>1</v>
       </c>
       <c r="G204" s="4"/>
-      <c r="H204" s="4"/>
-      <c r="I204" s="4"/>
+      <c r="H204" s="4">
+        <v>1</v>
+      </c>
+      <c r="I204" s="4">
+        <v>1</v>
+      </c>
       <c r="J204" s="4"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -6377,8 +6430,12 @@
         <v>1</v>
       </c>
       <c r="G205" s="4"/>
-      <c r="H205" s="4"/>
-      <c r="I205" s="4"/>
+      <c r="H205" s="4">
+        <v>1</v>
+      </c>
+      <c r="I205" s="4">
+        <v>1</v>
+      </c>
       <c r="J205" s="4"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6401,8 +6458,12 @@
         <v>1</v>
       </c>
       <c r="G206" s="4"/>
-      <c r="H206" s="4"/>
-      <c r="I206" s="4"/>
+      <c r="H206" s="4">
+        <v>1</v>
+      </c>
+      <c r="I206" s="4">
+        <v>1</v>
+      </c>
       <c r="J206" s="4"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -6426,7 +6487,9 @@
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
-      <c r="I207" s="4"/>
+      <c r="I207" s="4">
+        <v>1</v>
+      </c>
       <c r="J207" s="4"/>
     </row>
     <row r="208" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6450,7 +6513,9 @@
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
-      <c r="I208" s="4"/>
+      <c r="I208" s="4">
+        <v>1</v>
+      </c>
       <c r="J208" s="4"/>
     </row>
     <row r="209" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -6474,7 +6539,9 @@
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
-      <c r="I209" s="4"/>
+      <c r="I209" s="4">
+        <v>1</v>
+      </c>
       <c r="J209" s="4"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -6606,6 +6673,9 @@
       <c r="F215" s="1">
         <v>1</v>
       </c>
+      <c r="H215" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
@@ -6650,6 +6720,9 @@
         <v>1</v>
       </c>
       <c r="G217" s="1">
+        <v>1</v>
+      </c>
+      <c r="H217" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6716,7 +6789,9 @@
       <c r="G220" s="4">
         <v>1</v>
       </c>
-      <c r="H220" s="4"/>
+      <c r="H220" s="4">
+        <v>1</v>
+      </c>
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
     </row>
@@ -6807,6 +6882,9 @@
       <c r="F224" s="1">
         <v>1</v>
       </c>
+      <c r="H224" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
@@ -6827,6 +6905,9 @@
       <c r="F225" s="1">
         <v>1</v>
       </c>
+      <c r="I225" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
@@ -6867,6 +6948,12 @@
       <c r="F227" s="1">
         <v>1</v>
       </c>
+      <c r="H227" s="1">
+        <v>1</v>
+      </c>
+      <c r="I227" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="228" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
@@ -6885,6 +6972,12 @@
         <v>257</v>
       </c>
       <c r="F228" s="1">
+        <v>1</v>
+      </c>
+      <c r="H228" s="1">
+        <v>1</v>
+      </c>
+      <c r="I228" s="1">
         <v>1</v>
       </c>
     </row>
@@ -7069,6 +7162,10 @@
       <c r="G237" s="1">
         <v>1</v>
       </c>
+      <c r="H237" s="12"/>
+      <c r="I237" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="238" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
@@ -7089,6 +7186,12 @@
       <c r="G238" s="1">
         <v>1</v>
       </c>
+      <c r="H238" s="12">
+        <v>1</v>
+      </c>
+      <c r="I238" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
@@ -7110,8 +7213,10 @@
       <c r="G239" s="4">
         <v>1</v>
       </c>
-      <c r="H239" s="4"/>
-      <c r="I239" s="4"/>
+      <c r="H239" s="12">
+        <v>1</v>
+      </c>
+      <c r="I239" s="12"/>
       <c r="J239" s="4"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -7132,8 +7237,10 @@
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
-      <c r="H240" s="4"/>
-      <c r="I240" s="4"/>
+      <c r="H240" s="12">
+        <v>1</v>
+      </c>
+      <c r="I240" s="12"/>
       <c r="J240" s="4"/>
     </row>
     <row r="241" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7152,6 +7259,8 @@
       <c r="E241" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H241" s="12"/>
+      <c r="I241" s="12"/>
     </row>
     <row r="242" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
@@ -7169,9 +7278,10 @@
       <c r="E242" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H242" s="1">
-        <v>1</v>
-      </c>
+      <c r="H242" s="12">
+        <v>1</v>
+      </c>
+      <c r="I242" s="12"/>
       <c r="J242" s="1">
         <v>1</v>
       </c>
@@ -7192,6 +7302,8 @@
       <c r="E243" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="H243" s="12"/>
+      <c r="I243" s="12"/>
       <c r="J243" s="1">
         <v>1</v>
       </c>
@@ -7215,6 +7327,8 @@
       <c r="F244" s="1">
         <v>1</v>
       </c>
+      <c r="H244" s="12"/>
+      <c r="I244" s="12"/>
     </row>
     <row r="245" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
@@ -7235,6 +7349,8 @@
       <c r="F245" s="1">
         <v>1</v>
       </c>
+      <c r="H245" s="12"/>
+      <c r="I245" s="12"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
@@ -7255,6 +7371,8 @@
       <c r="F246" s="1">
         <v>1</v>
       </c>
+      <c r="H246" s="12"/>
+      <c r="I246" s="12"/>
     </row>
     <row r="247" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
@@ -7275,6 +7393,8 @@
       <c r="F247" s="1">
         <v>1</v>
       </c>
+      <c r="H247" s="12"/>
+      <c r="I247" s="12"/>
     </row>
     <row r="248" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
@@ -7292,6 +7412,8 @@
       <c r="E248" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="H248" s="12"/>
+      <c r="I248" s="12"/>
     </row>
     <row r="249" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
@@ -7311,8 +7433,8 @@
       </c>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
-      <c r="H249" s="4"/>
-      <c r="I249" s="4"/>
+      <c r="H249" s="12"/>
+      <c r="I249" s="12"/>
       <c r="J249" s="4"/>
     </row>
     <row r="250" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7335,8 +7457,8 @@
         <v>1</v>
       </c>
       <c r="G250" s="4"/>
-      <c r="H250" s="4"/>
-      <c r="I250" s="4"/>
+      <c r="H250" s="12"/>
+      <c r="I250" s="12"/>
       <c r="J250" s="4"/>
     </row>
     <row r="251" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -7359,8 +7481,8 @@
         <v>1</v>
       </c>
       <c r="G251" s="4"/>
-      <c r="H251" s="4"/>
-      <c r="I251" s="4"/>
+      <c r="H251" s="12"/>
+      <c r="I251" s="12"/>
       <c r="J251" s="4"/>
     </row>
     <row r="252" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -7383,8 +7505,8 @@
         <v>1</v>
       </c>
       <c r="G252" s="4"/>
-      <c r="H252" s="4"/>
-      <c r="I252" s="4"/>
+      <c r="H252" s="12"/>
+      <c r="I252" s="12"/>
       <c r="J252" s="4"/>
     </row>
     <row r="253" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7407,8 +7529,8 @@
         <v>1</v>
       </c>
       <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
-      <c r="I253" s="4"/>
+      <c r="H253" s="12"/>
+      <c r="I253" s="12"/>
       <c r="J253" s="4"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -7429,8 +7551,8 @@
       </c>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
-      <c r="I254" s="4"/>
+      <c r="H254" s="12"/>
+      <c r="I254" s="12"/>
       <c r="J254" s="4"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -7451,8 +7573,8 @@
       </c>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-      <c r="I255" s="4"/>
+      <c r="H255" s="12"/>
+      <c r="I255" s="12"/>
       <c r="J255" s="4"/>
     </row>
     <row r="256" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7473,8 +7595,8 @@
       </c>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
-      <c r="H256" s="4"/>
-      <c r="I256" s="4"/>
+      <c r="H256" s="12"/>
+      <c r="I256" s="12"/>
       <c r="J256" s="4"/>
     </row>
     <row r="257" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7493,6 +7615,8 @@
       <c r="E257" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H257" s="12"/>
+      <c r="I257" s="12"/>
     </row>
     <row r="258" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
@@ -7513,6 +7637,8 @@
       <c r="F258" s="1">
         <v>1</v>
       </c>
+      <c r="H258" s="12"/>
+      <c r="I258" s="12"/>
     </row>
     <row r="259" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
@@ -7533,6 +7659,8 @@
       <c r="F259" s="1">
         <v>1</v>
       </c>
+      <c r="H259" s="12"/>
+      <c r="I259" s="12"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
@@ -7553,6 +7681,8 @@
       <c r="F260" s="1">
         <v>1</v>
       </c>
+      <c r="H260" s="12"/>
+      <c r="I260" s="12"/>
     </row>
     <row r="261" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
@@ -7570,6 +7700,8 @@
       <c r="E261" s="3" t="s">
         <v>294</v>
       </c>
+      <c r="H261" s="12"/>
+      <c r="I261" s="12"/>
     </row>
     <row r="262" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
@@ -7589,8 +7721,8 @@
       </c>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
-      <c r="H262" s="4"/>
-      <c r="I262" s="4"/>
+      <c r="H262" s="12"/>
+      <c r="I262" s="12"/>
       <c r="J262" s="4"/>
     </row>
     <row r="263" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -7613,8 +7745,8 @@
         <v>1</v>
       </c>
       <c r="G263" s="4"/>
-      <c r="H263" s="4"/>
-      <c r="I263" s="4"/>
+      <c r="H263" s="12"/>
+      <c r="I263" s="12"/>
       <c r="J263" s="4"/>
     </row>
     <row r="264" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7635,8 +7767,8 @@
       </c>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
-      <c r="H264" s="4"/>
-      <c r="I264" s="4"/>
+      <c r="H264" s="12"/>
+      <c r="I264" s="12"/>
       <c r="J264" s="4"/>
     </row>
     <row r="265" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7657,8 +7789,8 @@
       </c>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
-      <c r="H265" s="4"/>
-      <c r="I265" s="4"/>
+      <c r="H265" s="12"/>
+      <c r="I265" s="12"/>
       <c r="J265" s="4"/>
     </row>
     <row r="266" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7677,6 +7809,8 @@
       <c r="E266" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H266" s="12"/>
+      <c r="I266" s="12"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
@@ -7697,6 +7831,8 @@
       <c r="F267" s="1">
         <v>1</v>
       </c>
+      <c r="H267" s="12"/>
+      <c r="I267" s="12"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
@@ -7717,6 +7853,8 @@
       <c r="F268" s="1">
         <v>1</v>
       </c>
+      <c r="H268" s="12"/>
+      <c r="I268" s="12"/>
     </row>
     <row r="269" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
@@ -7734,6 +7872,8 @@
       <c r="E269" s="3" t="s">
         <v>302</v>
       </c>
+      <c r="H269" s="12"/>
+      <c r="I269" s="12"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
@@ -7751,6 +7891,8 @@
       <c r="E270" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="H270" s="12"/>
+      <c r="I270" s="12"/>
     </row>
     <row r="271" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
@@ -7768,6 +7910,8 @@
       <c r="E271" s="3" t="s">
         <v>298</v>
       </c>
+      <c r="H271" s="12"/>
+      <c r="I271" s="12"/>
     </row>
     <row r="272" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
@@ -7787,8 +7931,8 @@
       </c>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
-      <c r="H272" s="4"/>
-      <c r="I272" s="4"/>
+      <c r="H272" s="12"/>
+      <c r="I272" s="12"/>
       <c r="J272" s="4"/>
     </row>
     <row r="273" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7811,8 +7955,8 @@
         <v>1</v>
       </c>
       <c r="G273" s="4"/>
-      <c r="H273" s="4"/>
-      <c r="I273" s="4"/>
+      <c r="H273" s="12"/>
+      <c r="I273" s="12"/>
       <c r="J273" s="4"/>
     </row>
     <row r="274" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7837,8 +7981,8 @@
       <c r="G274" s="4">
         <v>1</v>
       </c>
-      <c r="H274" s="4"/>
-      <c r="I274" s="4"/>
+      <c r="H274" s="12"/>
+      <c r="I274" s="12"/>
       <c r="J274" s="4"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -7859,8 +8003,8 @@
       </c>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
-      <c r="H275" s="4"/>
-      <c r="I275" s="4"/>
+      <c r="H275" s="12"/>
+      <c r="I275" s="12"/>
       <c r="J275" s="4"/>
     </row>
     <row r="276" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7881,8 +8025,8 @@
       </c>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
-      <c r="H276" s="4"/>
-      <c r="I276" s="4"/>
+      <c r="H276" s="12"/>
+      <c r="I276" s="12"/>
       <c r="J276" s="4"/>
     </row>
     <row r="277" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7901,6 +8045,8 @@
       <c r="E277" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H277" s="12"/>
+      <c r="I277" s="12"/>
     </row>
     <row r="278" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
@@ -7921,6 +8067,8 @@
       <c r="F278" s="1">
         <v>1</v>
       </c>
+      <c r="H278" s="12"/>
+      <c r="I278" s="12"/>
     </row>
     <row r="279" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
@@ -7941,6 +8089,8 @@
       <c r="F279" s="1">
         <v>1</v>
       </c>
+      <c r="H279" s="12"/>
+      <c r="I279" s="12"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
@@ -7961,6 +8111,8 @@
       <c r="F280" s="1">
         <v>1</v>
       </c>
+      <c r="H280" s="12"/>
+      <c r="I280" s="12"/>
     </row>
     <row r="281" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
@@ -7981,6 +8133,8 @@
       <c r="F281" s="1">
         <v>1</v>
       </c>
+      <c r="H281" s="12"/>
+      <c r="I281" s="12"/>
     </row>
     <row r="282" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
@@ -8001,6 +8155,8 @@
       <c r="F282" s="1">
         <v>1</v>
       </c>
+      <c r="H282" s="12"/>
+      <c r="I282" s="12"/>
     </row>
     <row r="283" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
@@ -8021,6 +8177,8 @@
       <c r="F283" s="1">
         <v>1</v>
       </c>
+      <c r="H283" s="12"/>
+      <c r="I283" s="12"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
@@ -8038,6 +8196,8 @@
       <c r="E284" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="H284" s="12"/>
+      <c r="I284" s="12"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
@@ -8055,6 +8215,8 @@
       <c r="E285" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="H285" s="12"/>
+      <c r="I285" s="12"/>
     </row>
     <row r="286" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
@@ -8072,6 +8234,8 @@
       <c r="E286" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="H286" s="12"/>
+      <c r="I286" s="12"/>
     </row>
     <row r="287" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
@@ -8091,8 +8255,8 @@
       </c>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
-      <c r="H287" s="4"/>
-      <c r="I287" s="4"/>
+      <c r="H287" s="12"/>
+      <c r="I287" s="12"/>
       <c r="J287" s="4"/>
     </row>
     <row r="288" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8115,8 +8279,8 @@
         <v>1</v>
       </c>
       <c r="G288" s="4"/>
-      <c r="H288" s="4"/>
-      <c r="I288" s="4"/>
+      <c r="H288" s="12"/>
+      <c r="I288" s="12"/>
       <c r="J288" s="4"/>
     </row>
     <row r="289" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8135,6 +8299,8 @@
       <c r="E289" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H289" s="12"/>
+      <c r="I289" s="12"/>
     </row>
     <row r="290" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
@@ -8155,6 +8321,8 @@
       <c r="F290" s="1">
         <v>1</v>
       </c>
+      <c r="H290" s="12"/>
+      <c r="I290" s="12"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
@@ -8175,6 +8343,8 @@
       <c r="F291" s="1">
         <v>1</v>
       </c>
+      <c r="H291" s="12"/>
+      <c r="I291" s="12"/>
     </row>
     <row r="292" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
@@ -8192,6 +8362,8 @@
       <c r="E292" s="3" t="s">
         <v>319</v>
       </c>
+      <c r="H292" s="12"/>
+      <c r="I292" s="12"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
@@ -8209,6 +8381,8 @@
       <c r="E293" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="H293" s="12"/>
+      <c r="I293" s="12"/>
     </row>
     <row r="294" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
@@ -8228,8 +8402,8 @@
       </c>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
-      <c r="H294" s="4"/>
-      <c r="I294" s="4"/>
+      <c r="H294" s="12"/>
+      <c r="I294" s="12"/>
       <c r="J294" s="4"/>
     </row>
     <row r="295" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8252,8 +8426,8 @@
         <v>1</v>
       </c>
       <c r="G295" s="4"/>
-      <c r="H295" s="4"/>
-      <c r="I295" s="4"/>
+      <c r="H295" s="12"/>
+      <c r="I295" s="12"/>
       <c r="J295" s="4"/>
     </row>
     <row r="296" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8278,8 +8452,8 @@
       <c r="G296" s="4">
         <v>1</v>
       </c>
-      <c r="H296" s="4"/>
-      <c r="I296" s="4"/>
+      <c r="H296" s="12"/>
+      <c r="I296" s="12"/>
       <c r="J296" s="4"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -8300,8 +8474,8 @@
       </c>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
-      <c r="H297" s="4"/>
-      <c r="I297" s="4"/>
+      <c r="H297" s="12"/>
+      <c r="I297" s="12"/>
       <c r="J297" s="4"/>
     </row>
     <row r="298" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8322,8 +8496,8 @@
       </c>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
-      <c r="H298" s="4"/>
-      <c r="I298" s="4"/>
+      <c r="H298" s="12"/>
+      <c r="I298" s="12"/>
       <c r="J298" s="4"/>
     </row>
     <row r="299" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8342,6 +8516,8 @@
       <c r="E299" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H299" s="12"/>
+      <c r="I299" s="12"/>
     </row>
     <row r="300" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
@@ -8362,6 +8538,8 @@
       <c r="F300" s="1">
         <v>1</v>
       </c>
+      <c r="H300" s="12"/>
+      <c r="I300" s="12"/>
     </row>
     <row r="301" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
@@ -8385,6 +8563,8 @@
       <c r="G301" s="1">
         <v>1</v>
       </c>
+      <c r="H301" s="12"/>
+      <c r="I301" s="12"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
@@ -8408,6 +8588,8 @@
       <c r="G302" s="1">
         <v>1</v>
       </c>
+      <c r="H302" s="12"/>
+      <c r="I302" s="12"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
@@ -8425,6 +8607,8 @@
       <c r="E303" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="H303" s="12"/>
+      <c r="I303" s="12"/>
     </row>
     <row r="304" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
@@ -8442,6 +8626,8 @@
       <c r="E304" s="3" t="s">
         <v>298</v>
       </c>
+      <c r="H304" s="12"/>
+      <c r="I304" s="12"/>
     </row>
     <row r="305" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
@@ -8461,8 +8647,8 @@
       </c>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
-      <c r="H305" s="4"/>
-      <c r="I305" s="4"/>
+      <c r="H305" s="12"/>
+      <c r="I305" s="12"/>
       <c r="J305" s="4"/>
     </row>
     <row r="306" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8485,8 +8671,8 @@
         <v>1</v>
       </c>
       <c r="G306" s="4"/>
-      <c r="H306" s="4"/>
-      <c r="I306" s="4"/>
+      <c r="H306" s="12"/>
+      <c r="I306" s="12"/>
       <c r="J306" s="4"/>
     </row>
     <row r="307" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8505,6 +8691,8 @@
       <c r="E307" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H307" s="12"/>
+      <c r="I307" s="12"/>
     </row>
     <row r="308" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
@@ -8525,6 +8713,8 @@
       <c r="F308" s="1">
         <v>1</v>
       </c>
+      <c r="H308" s="12"/>
+      <c r="I308" s="12"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
@@ -8545,6 +8735,8 @@
       <c r="F309" s="1">
         <v>1</v>
       </c>
+      <c r="H309" s="12"/>
+      <c r="I309" s="12"/>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
@@ -8565,6 +8757,8 @@
       <c r="F310" s="1">
         <v>1</v>
       </c>
+      <c r="H310" s="12"/>
+      <c r="I310" s="12"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
@@ -8582,6 +8776,8 @@
       <c r="E311" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="H311" s="12"/>
+      <c r="I311" s="12"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
@@ -8599,6 +8795,8 @@
       <c r="E312" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="H312" s="12"/>
+      <c r="I312" s="12"/>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
@@ -8616,6 +8814,8 @@
       <c r="E313" s="3" t="s">
         <v>333</v>
       </c>
+      <c r="H313" s="12"/>
+      <c r="I313" s="12"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
@@ -8633,6 +8833,8 @@
       <c r="E314" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="H314" s="12"/>
+      <c r="I314" s="12"/>
     </row>
     <row r="315" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
@@ -8652,8 +8854,8 @@
       </c>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
-      <c r="H315" s="4"/>
-      <c r="I315" s="4"/>
+      <c r="H315" s="12"/>
+      <c r="I315" s="12"/>
       <c r="J315" s="4"/>
     </row>
     <row r="316" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8676,8 +8878,8 @@
         <v>1</v>
       </c>
       <c r="G316" s="4"/>
-      <c r="H316" s="4"/>
-      <c r="I316" s="4"/>
+      <c r="H316" s="12"/>
+      <c r="I316" s="12"/>
       <c r="J316" s="4"/>
     </row>
     <row r="317" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8700,8 +8902,8 @@
         <v>1</v>
       </c>
       <c r="G317" s="4"/>
-      <c r="H317" s="4"/>
-      <c r="I317" s="4"/>
+      <c r="H317" s="12"/>
+      <c r="I317" s="12"/>
       <c r="J317" s="4"/>
     </row>
     <row r="318" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8724,8 +8926,8 @@
         <v>1</v>
       </c>
       <c r="G318" s="4"/>
-      <c r="H318" s="4"/>
-      <c r="I318" s="4"/>
+      <c r="H318" s="12"/>
+      <c r="I318" s="12"/>
       <c r="J318" s="4"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -8748,8 +8950,8 @@
         <v>1</v>
       </c>
       <c r="G319" s="4"/>
-      <c r="H319" s="4"/>
-      <c r="I319" s="4"/>
+      <c r="H319" s="12"/>
+      <c r="I319" s="12"/>
       <c r="J319" s="4"/>
     </row>
     <row r="320" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8770,8 +8972,8 @@
       </c>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
-      <c r="H320" s="4"/>
-      <c r="I320" s="4"/>
+      <c r="H320" s="12"/>
+      <c r="I320" s="12"/>
       <c r="J320" s="4"/>
     </row>
     <row r="321" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -8792,8 +8994,8 @@
       </c>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
-      <c r="H321" s="4"/>
-      <c r="I321" s="4"/>
+      <c r="H321" s="12"/>
+      <c r="I321" s="12"/>
       <c r="J321" s="4"/>
     </row>
     <row r="322" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8812,6 +9014,8 @@
       <c r="E322" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H322" s="12"/>
+      <c r="I322" s="12"/>
     </row>
     <row r="323" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
@@ -8832,6 +9036,8 @@
       <c r="F323" s="1">
         <v>1</v>
       </c>
+      <c r="H323" s="12"/>
+      <c r="I323" s="12"/>
     </row>
     <row r="324" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
@@ -8852,6 +9058,8 @@
       <c r="F324" s="1">
         <v>1</v>
       </c>
+      <c r="H324" s="12"/>
+      <c r="I324" s="12"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
@@ -8872,6 +9080,8 @@
       <c r="F325" s="1">
         <v>1</v>
       </c>
+      <c r="H325" s="12"/>
+      <c r="I325" s="12"/>
     </row>
     <row r="326" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
@@ -8892,6 +9102,8 @@
       <c r="F326" s="1">
         <v>1</v>
       </c>
+      <c r="H326" s="12"/>
+      <c r="I326" s="12"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
@@ -8912,6 +9124,8 @@
       <c r="F327" s="1">
         <v>1</v>
       </c>
+      <c r="H327" s="12"/>
+      <c r="I327" s="12"/>
     </row>
     <row r="328" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
@@ -8929,6 +9143,8 @@
       <c r="E328" s="3" t="s">
         <v>347</v>
       </c>
+      <c r="H328" s="12"/>
+      <c r="I328" s="12"/>
     </row>
     <row r="329" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
@@ -8946,6 +9162,8 @@
       <c r="E329" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="H329" s="12"/>
+      <c r="I329" s="12"/>
     </row>
     <row r="330" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
@@ -8965,8 +9183,8 @@
       </c>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
-      <c r="H330" s="4"/>
-      <c r="I330" s="4"/>
+      <c r="H330" s="12"/>
+      <c r="I330" s="12"/>
       <c r="J330" s="4"/>
     </row>
     <row r="331" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8989,8 +9207,8 @@
         <v>1</v>
       </c>
       <c r="G331" s="4"/>
-      <c r="H331" s="4"/>
-      <c r="I331" s="4"/>
+      <c r="H331" s="12"/>
+      <c r="I331" s="12"/>
       <c r="J331" s="4"/>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -9011,8 +9229,8 @@
       </c>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
-      <c r="H332" s="4"/>
-      <c r="I332" s="4"/>
+      <c r="H332" s="12"/>
+      <c r="I332" s="12"/>
       <c r="J332" s="4"/>
     </row>
     <row r="333" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9033,8 +9251,8 @@
       </c>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
-      <c r="H333" s="4"/>
-      <c r="I333" s="4"/>
+      <c r="H333" s="12"/>
+      <c r="I333" s="12"/>
       <c r="J333" s="4"/>
     </row>
     <row r="334" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9053,6 +9271,8 @@
       <c r="E334" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H334" s="12"/>
+      <c r="I334" s="12"/>
     </row>
     <row r="335" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
@@ -9076,6 +9296,8 @@
       <c r="G335" s="1">
         <v>1</v>
       </c>
+      <c r="H335" s="12"/>
+      <c r="I335" s="12"/>
     </row>
     <row r="336" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
@@ -9093,6 +9315,8 @@
       <c r="E336" s="3" t="s">
         <v>353</v>
       </c>
+      <c r="H336" s="12"/>
+      <c r="I336" s="12"/>
     </row>
     <row r="337" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
@@ -9112,8 +9336,8 @@
       </c>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
-      <c r="H337" s="4"/>
-      <c r="I337" s="4"/>
+      <c r="H337" s="12"/>
+      <c r="I337" s="12"/>
       <c r="J337" s="4"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -9136,8 +9360,8 @@
         <v>1</v>
       </c>
       <c r="G338" s="4"/>
-      <c r="H338" s="4"/>
-      <c r="I338" s="4"/>
+      <c r="H338" s="12"/>
+      <c r="I338" s="12"/>
       <c r="J338" s="4"/>
     </row>
     <row r="339" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9160,8 +9384,8 @@
         <v>1</v>
       </c>
       <c r="G339" s="4"/>
-      <c r="H339" s="4"/>
-      <c r="I339" s="4"/>
+      <c r="H339" s="12"/>
+      <c r="I339" s="12"/>
       <c r="J339" s="4"/>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -9184,8 +9408,8 @@
         <v>1</v>
       </c>
       <c r="G340" s="4"/>
-      <c r="H340" s="4"/>
-      <c r="I340" s="4"/>
+      <c r="H340" s="12"/>
+      <c r="I340" s="12"/>
       <c r="J340" s="4"/>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -9206,8 +9430,8 @@
       </c>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
-      <c r="H341" s="4"/>
-      <c r="I341" s="4"/>
+      <c r="H341" s="12"/>
+      <c r="I341" s="12"/>
       <c r="J341" s="4"/>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -9228,8 +9452,8 @@
       </c>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
-      <c r="H342" s="4"/>
-      <c r="I342" s="4"/>
+      <c r="H342" s="12"/>
+      <c r="I342" s="12"/>
       <c r="J342" s="4"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -9250,8 +9474,8 @@
       </c>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
-      <c r="H343" s="4"/>
-      <c r="I343" s="4"/>
+      <c r="H343" s="12"/>
+      <c r="I343" s="12"/>
       <c r="J343" s="4"/>
     </row>
     <row r="344" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9270,6 +9494,8 @@
       <c r="E344" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H344" s="12"/>
+      <c r="I344" s="12"/>
     </row>
     <row r="345" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
@@ -9293,6 +9519,8 @@
       <c r="G345" s="1">
         <v>1</v>
       </c>
+      <c r="H345" s="12"/>
+      <c r="I345" s="12"/>
     </row>
     <row r="346" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
@@ -9316,6 +9544,8 @@
       <c r="G346" s="1">
         <v>1</v>
       </c>
+      <c r="H346" s="12"/>
+      <c r="I346" s="12"/>
     </row>
     <row r="347" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
@@ -9333,6 +9563,8 @@
       <c r="E347" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="H347" s="12"/>
+      <c r="I347" s="12"/>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
@@ -9350,6 +9582,8 @@
       <c r="E348" s="3" t="s">
         <v>363</v>
       </c>
+      <c r="H348" s="12"/>
+      <c r="I348" s="12"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
@@ -9367,6 +9601,8 @@
       <c r="E349" s="3" t="s">
         <v>364</v>
       </c>
+      <c r="H349" s="12"/>
+      <c r="I349" s="12"/>
     </row>
     <row r="350" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
@@ -9386,8 +9622,8 @@
       </c>
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
-      <c r="H350" s="4"/>
-      <c r="I350" s="4"/>
+      <c r="H350" s="12"/>
+      <c r="I350" s="12"/>
       <c r="J350" s="4"/>
     </row>
     <row r="351" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -9410,8 +9646,8 @@
         <v>1</v>
       </c>
       <c r="G351" s="4"/>
-      <c r="H351" s="4"/>
-      <c r="I351" s="4"/>
+      <c r="H351" s="12"/>
+      <c r="I351" s="12"/>
       <c r="J351" s="4"/>
     </row>
     <row r="352" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -9434,8 +9670,8 @@
         <v>1</v>
       </c>
       <c r="G352" s="4"/>
-      <c r="H352" s="4"/>
-      <c r="I352" s="4"/>
+      <c r="H352" s="12"/>
+      <c r="I352" s="12"/>
       <c r="J352" s="4"/>
     </row>
     <row r="353" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9458,8 +9694,8 @@
         <v>1</v>
       </c>
       <c r="G353" s="4"/>
-      <c r="H353" s="4"/>
-      <c r="I353" s="4"/>
+      <c r="H353" s="12"/>
+      <c r="I353" s="12"/>
       <c r="J353" s="4"/>
     </row>
     <row r="354" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9480,8 +9716,8 @@
       </c>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
-      <c r="H354" s="4"/>
-      <c r="I354" s="4"/>
+      <c r="H354" s="12"/>
+      <c r="I354" s="12"/>
       <c r="J354" s="4"/>
     </row>
     <row r="355" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9502,8 +9738,8 @@
       </c>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
-      <c r="H355" s="4"/>
-      <c r="I355" s="4"/>
+      <c r="H355" s="12"/>
+      <c r="I355" s="12"/>
       <c r="J355" s="4"/>
     </row>
     <row r="356" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9747,6 +9983,8 @@
       <c r="E367" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H367" s="12"/>
+      <c r="I367" s="12"/>
     </row>
     <row r="368" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
@@ -9767,6 +10005,8 @@
       <c r="F368" s="1">
         <v>1</v>
       </c>
+      <c r="H368" s="12"/>
+      <c r="I368" s="12"/>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
@@ -9784,6 +10024,8 @@
       <c r="E369" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="H369" s="12"/>
+      <c r="I369" s="12"/>
     </row>
     <row r="370" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
@@ -9801,6 +10043,8 @@
       <c r="E370" s="3" t="s">
         <v>385</v>
       </c>
+      <c r="H370" s="12"/>
+      <c r="I370" s="12"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
@@ -9818,6 +10062,8 @@
       <c r="E371" s="3" t="s">
         <v>386</v>
       </c>
+      <c r="H371" s="12"/>
+      <c r="I371" s="12"/>
     </row>
     <row r="372" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
@@ -9835,6 +10081,8 @@
       <c r="E372" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="H372" s="12"/>
+      <c r="I372" s="12"/>
     </row>
     <row r="373" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
@@ -9854,8 +10102,8 @@
       </c>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
-      <c r="H373" s="4"/>
-      <c r="I373" s="4"/>
+      <c r="H373" s="12"/>
+      <c r="I373" s="12"/>
       <c r="J373" s="4"/>
     </row>
     <row r="374" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9878,8 +10126,8 @@
         <v>1</v>
       </c>
       <c r="G374" s="4"/>
-      <c r="H374" s="4"/>
-      <c r="I374" s="4"/>
+      <c r="H374" s="12"/>
+      <c r="I374" s="12"/>
       <c r="J374" s="4"/>
     </row>
     <row r="375" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -9902,8 +10150,8 @@
         <v>1</v>
       </c>
       <c r="G375" s="4"/>
-      <c r="H375" s="4"/>
-      <c r="I375" s="4"/>
+      <c r="H375" s="12"/>
+      <c r="I375" s="12"/>
       <c r="J375" s="4"/>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -9926,8 +10174,8 @@
         <v>1</v>
       </c>
       <c r="G376" s="4"/>
-      <c r="H376" s="4"/>
-      <c r="I376" s="4"/>
+      <c r="H376" s="12"/>
+      <c r="I376" s="12"/>
       <c r="J376" s="4"/>
     </row>
     <row r="377" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9950,8 +10198,8 @@
         <v>1</v>
       </c>
       <c r="G377" s="4"/>
-      <c r="H377" s="4"/>
-      <c r="I377" s="4"/>
+      <c r="H377" s="12"/>
+      <c r="I377" s="12"/>
       <c r="J377" s="4"/>
     </row>
     <row r="378" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9974,8 +10222,8 @@
         <v>1</v>
       </c>
       <c r="G378" s="4"/>
-      <c r="H378" s="4"/>
-      <c r="I378" s="4"/>
+      <c r="H378" s="12"/>
+      <c r="I378" s="12"/>
       <c r="J378" s="4"/>
     </row>
     <row r="379" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -9996,8 +10244,8 @@
       </c>
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
-      <c r="H379" s="4"/>
-      <c r="I379" s="4"/>
+      <c r="H379" s="12"/>
+      <c r="I379" s="12"/>
       <c r="J379" s="4"/>
     </row>
     <row r="380" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10016,6 +10264,8 @@
       <c r="E380" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H380" s="12"/>
+      <c r="I380" s="12"/>
     </row>
     <row r="381" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
@@ -10036,6 +10286,8 @@
       <c r="F381" s="1">
         <v>1</v>
       </c>
+      <c r="H381" s="12"/>
+      <c r="I381" s="12"/>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
@@ -10056,6 +10308,8 @@
       <c r="F382" s="1">
         <v>1</v>
       </c>
+      <c r="H382" s="12"/>
+      <c r="I382" s="12"/>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
@@ -10076,6 +10330,8 @@
       <c r="F383" s="1">
         <v>1</v>
       </c>
+      <c r="H383" s="12"/>
+      <c r="I383" s="12"/>
     </row>
     <row r="384" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
@@ -10093,6 +10349,8 @@
       <c r="E384" s="3" t="s">
         <v>398</v>
       </c>
+      <c r="H384" s="12"/>
+      <c r="I384" s="12"/>
     </row>
     <row r="385" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
@@ -10110,6 +10368,8 @@
       <c r="E385" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="H385" s="12"/>
+      <c r="I385" s="12"/>
     </row>
     <row r="386" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
@@ -10129,8 +10389,8 @@
       </c>
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
-      <c r="H386" s="4"/>
-      <c r="I386" s="4"/>
+      <c r="H386" s="12"/>
+      <c r="I386" s="12"/>
       <c r="J386" s="4"/>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -10151,8 +10411,8 @@
       </c>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
-      <c r="H387" s="4"/>
-      <c r="I387" s="4"/>
+      <c r="H387" s="12"/>
+      <c r="I387" s="12"/>
       <c r="J387" s="4"/>
     </row>
     <row r="388" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10173,8 +10433,8 @@
       </c>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
-      <c r="H388" s="4"/>
-      <c r="I388" s="4"/>
+      <c r="H388" s="12"/>
+      <c r="I388" s="12"/>
       <c r="J388" s="4"/>
     </row>
     <row r="389" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10193,6 +10453,8 @@
       <c r="E389" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="H389" s="12"/>
+      <c r="I389" s="12"/>
     </row>
     <row r="390" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
@@ -10213,6 +10475,8 @@
       <c r="F390" s="1">
         <v>1</v>
       </c>
+      <c r="H390" s="12"/>
+      <c r="I390" s="12"/>
     </row>
     <row r="391" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
@@ -10233,6 +10497,8 @@
       <c r="F391" s="1">
         <v>1</v>
       </c>
+      <c r="H391" s="12"/>
+      <c r="I391" s="12"/>
     </row>
     <row r="392" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
@@ -10253,6 +10519,8 @@
       <c r="F392" s="1">
         <v>1</v>
       </c>
+      <c r="H392" s="12"/>
+      <c r="I392" s="12"/>
     </row>
     <row r="393" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
@@ -10273,6 +10541,8 @@
       <c r="F393" s="1">
         <v>1</v>
       </c>
+      <c r="H393" s="12"/>
+      <c r="I393" s="12"/>
     </row>
     <row r="394" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
@@ -10293,6 +10563,8 @@
       <c r="F394" s="1">
         <v>1</v>
       </c>
+      <c r="H394" s="12"/>
+      <c r="I394" s="12"/>
     </row>
     <row r="395" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
@@ -10313,6 +10585,8 @@
       <c r="F395" s="1">
         <v>1</v>
       </c>
+      <c r="H395" s="12"/>
+      <c r="I395" s="12"/>
     </row>
     <row r="396" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
@@ -10333,6 +10607,8 @@
       <c r="F396" s="1">
         <v>1</v>
       </c>
+      <c r="H396" s="12"/>
+      <c r="I396" s="12"/>
     </row>
     <row r="397" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
@@ -10353,6 +10629,8 @@
       <c r="F397" s="1">
         <v>1</v>
       </c>
+      <c r="H397" s="12"/>
+      <c r="I397" s="12"/>
     </row>
     <row r="398" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
@@ -10373,6 +10651,8 @@
       <c r="F398" s="1">
         <v>1</v>
       </c>
+      <c r="H398" s="12"/>
+      <c r="I398" s="12"/>
     </row>
     <row r="399" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
@@ -10390,6 +10670,8 @@
       <c r="E399" s="3" t="s">
         <v>370</v>
       </c>
+      <c r="H399" s="12"/>
+      <c r="I399" s="12"/>
     </row>
     <row r="400" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
@@ -10409,8 +10691,8 @@
       </c>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
-      <c r="H400" s="4"/>
-      <c r="I400" s="4"/>
+      <c r="H400" s="12"/>
+      <c r="I400" s="12"/>
       <c r="J400" s="4"/>
     </row>
     <row r="401" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10433,8 +10715,8 @@
         <v>1</v>
       </c>
       <c r="G401" s="4"/>
-      <c r="H401" s="4"/>
-      <c r="I401" s="4"/>
+      <c r="H401" s="12"/>
+      <c r="I401" s="12"/>
       <c r="J401" s="4"/>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
@@ -10457,8 +10739,8 @@
         <v>1</v>
       </c>
       <c r="G402" s="4"/>
-      <c r="H402" s="4"/>
-      <c r="I402" s="4"/>
+      <c r="H402" s="12"/>
+      <c r="I402" s="12"/>
       <c r="J402" s="4"/>
     </row>
     <row r="403" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10479,8 +10761,8 @@
       </c>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
-      <c r="H403" s="4"/>
-      <c r="I403" s="4"/>
+      <c r="H403" s="12"/>
+      <c r="I403" s="12"/>
       <c r="J403" s="4"/>
     </row>
     <row r="404" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -10501,8 +10783,8 @@
       </c>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
-      <c r="H404" s="4"/>
-      <c r="I404" s="4"/>
+      <c r="H404" s="12"/>
+      <c r="I404" s="12"/>
       <c r="J404" s="4"/>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -10524,6 +10806,8 @@
       <c r="G405" s="1">
         <v>1</v>
       </c>
+      <c r="H405" s="12"/>
+      <c r="I405" s="12"/>
     </row>
     <row r="406" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
@@ -10544,6 +10828,8 @@
       <c r="G406" s="1">
         <v>1</v>
       </c>
+      <c r="H406" s="12"/>
+      <c r="I406" s="12"/>
     </row>
     <row r="407" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
@@ -10564,6 +10850,8 @@
       <c r="G407" s="1">
         <v>1</v>
       </c>
+      <c r="H407" s="12"/>
+      <c r="I407" s="12"/>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
@@ -10584,6 +10872,8 @@
       <c r="G408" s="1">
         <v>1</v>
       </c>
+      <c r="H408" s="12"/>
+      <c r="I408" s="12"/>
     </row>
     <row r="409" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
@@ -10604,6 +10894,8 @@
       <c r="G409" s="1">
         <v>1</v>
       </c>
+      <c r="H409" s="12"/>
+      <c r="I409" s="12"/>
     </row>
     <row r="410" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
@@ -10624,6 +10916,8 @@
       <c r="G410" s="1">
         <v>1</v>
       </c>
+      <c r="H410" s="12"/>
+      <c r="I410" s="12"/>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
@@ -10644,6 +10938,8 @@
       <c r="G411" s="1">
         <v>1</v>
       </c>
+      <c r="H411" s="12"/>
+      <c r="I411" s="12"/>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
@@ -10664,6 +10960,8 @@
       <c r="G412" s="1">
         <v>1</v>
       </c>
+      <c r="H412" s="12"/>
+      <c r="I412" s="12"/>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
@@ -10684,6 +10982,8 @@
       <c r="G413" s="1">
         <v>1</v>
       </c>
+      <c r="H413" s="12"/>
+      <c r="I413" s="12"/>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
@@ -10704,6 +11004,8 @@
       <c r="G414" s="1">
         <v>1</v>
       </c>
+      <c r="H414" s="12"/>
+      <c r="I414" s="12"/>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
@@ -10724,6 +11026,8 @@
       <c r="G415" s="1">
         <v>1</v>
       </c>
+      <c r="H415" s="12"/>
+      <c r="I415" s="12"/>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
@@ -10744,6 +11048,8 @@
       <c r="G416" s="1">
         <v>1</v>
       </c>
+      <c r="H416" s="12"/>
+      <c r="I416" s="12"/>
     </row>
     <row r="417" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
@@ -10764,6 +11070,8 @@
       <c r="G417" s="1">
         <v>1</v>
       </c>
+      <c r="H417" s="12"/>
+      <c r="I417" s="12"/>
     </row>
     <row r="418" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="8">
@@ -10783,8 +11091,8 @@
       </c>
       <c r="F418" s="8"/>
       <c r="G418" s="8"/>
-      <c r="H418" s="8"/>
-      <c r="I418" s="8"/>
+      <c r="H418" s="12"/>
+      <c r="I418" s="12"/>
       <c r="J418" s="8"/>
     </row>
     <row r="419" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -10807,8 +11115,8 @@
         <v>1</v>
       </c>
       <c r="G419" s="4"/>
-      <c r="H419" s="4"/>
-      <c r="I419" s="4"/>
+      <c r="H419" s="12"/>
+      <c r="I419" s="12"/>
       <c r="J419" s="4"/>
     </row>
     <row r="420" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10831,8 +11139,8 @@
         <v>1</v>
       </c>
       <c r="G420" s="4"/>
-      <c r="H420" s="4"/>
-      <c r="I420" s="4"/>
+      <c r="H420" s="12"/>
+      <c r="I420" s="12"/>
       <c r="J420" s="4"/>
     </row>
     <row r="421" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10855,8 +11163,8 @@
         <v>1</v>
       </c>
       <c r="G421" s="4"/>
-      <c r="H421" s="4"/>
-      <c r="I421" s="4"/>
+      <c r="H421" s="12"/>
+      <c r="I421" s="12"/>
       <c r="J421" s="4"/>
     </row>
     <row r="422" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10877,8 +11185,8 @@
       </c>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
-      <c r="H422" s="4"/>
-      <c r="I422" s="4"/>
+      <c r="H422" s="12"/>
+      <c r="I422" s="12"/>
       <c r="J422" s="4"/>
     </row>
     <row r="423" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10899,8 +11207,8 @@
       </c>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
-      <c r="H423" s="4"/>
-      <c r="I423" s="4"/>
+      <c r="H423" s="12"/>
+      <c r="I423" s="12"/>
       <c r="J423" s="4"/>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
@@ -10941,8 +11249,8 @@
       </c>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
-      <c r="H425" s="4"/>
-      <c r="I425" s="4"/>
+      <c r="H425" s="12"/>
+      <c r="I425" s="12"/>
       <c r="J425" s="4"/>
     </row>
     <row r="426" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10963,8 +11271,8 @@
       </c>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
-      <c r="H426" s="4"/>
-      <c r="I426" s="4"/>
+      <c r="H426" s="12"/>
+      <c r="I426" s="12"/>
       <c r="J426" s="4"/>
     </row>
     <row r="427" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10987,8 +11295,8 @@
         <v>1</v>
       </c>
       <c r="G427" s="4"/>
-      <c r="H427" s="4"/>
-      <c r="I427" s="4"/>
+      <c r="H427" s="12"/>
+      <c r="I427" s="12"/>
       <c r="J427" s="4"/>
     </row>
     <row r="428" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -11011,8 +11319,8 @@
         <v>1</v>
       </c>
       <c r="G428" s="4"/>
-      <c r="H428" s="4"/>
-      <c r="I428" s="4"/>
+      <c r="H428" s="12"/>
+      <c r="I428" s="12"/>
       <c r="J428" s="4"/>
     </row>
     <row r="429" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -11033,8 +11341,8 @@
       </c>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
-      <c r="H429" s="4"/>
-      <c r="I429" s="4"/>
+      <c r="H429" s="12"/>
+      <c r="I429" s="12"/>
       <c r="J429" s="4"/>
     </row>
     <row r="430" spans="1:10" ht="30" x14ac:dyDescent="0.25">

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1802,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="I426" sqref="I426"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1407,7 +1407,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,6 +1418,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1437,7 +1444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1448,6 +1455,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1491,13 +1503,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1509,19 +1522,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1802,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,7 +2501,7 @@
       <c r="E31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="13">
         <v>1</v>
       </c>
       <c r="I31" s="7">
@@ -2508,7 +2524,7 @@
       <c r="E32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="I32" s="7">
@@ -2531,7 +2547,7 @@
       <c r="E33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="13"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2611,7 +2627,7 @@
       <c r="E37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2633,7 +2649,7 @@
       <c r="E38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="14">
         <v>1</v>
       </c>
       <c r="G38" s="4"/>
@@ -2657,7 +2673,7 @@
       <c r="E39" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2679,7 +2695,7 @@
       <c r="E40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -2779,7 +2795,7 @@
       <c r="E45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2799,6 +2815,7 @@
       <c r="E46" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -2816,7 +2833,7 @@
       <c r="E47" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="G47" s="4"/>
@@ -2840,7 +2857,7 @@
       <c r="E48" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="4"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2862,7 +2879,7 @@
       <c r="E49" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -2884,7 +2901,7 @@
       <c r="E50" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="13">
         <v>1</v>
       </c>
       <c r="G50" s="4"/>
@@ -2908,7 +2925,7 @@
       <c r="E51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -2930,7 +2947,7 @@
       <c r="E52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -2952,7 +2969,7 @@
       <c r="E53" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2972,6 +2989,7 @@
       <c r="E54" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -2983,13 +3001,13 @@
       <c r="C55" s="4">
         <v>4</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="13">
         <v>1</v>
       </c>
       <c r="G55" s="4"/>
@@ -3015,7 +3033,7 @@
       <c r="E56" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="13">
         <v>1</v>
       </c>
       <c r="G56" s="4"/>
@@ -3045,7 +3063,7 @@
       <c r="E57" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="13">
         <v>1</v>
       </c>
       <c r="G57" s="4"/>
@@ -3073,7 +3091,7 @@
       <c r="E58" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="13">
         <v>1</v>
       </c>
       <c r="G58" s="4"/>
@@ -3101,7 +3119,7 @@
       <c r="E59" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="13">
         <v>1</v>
       </c>
       <c r="G59" s="4"/>
@@ -3129,7 +3147,7 @@
       <c r="E60" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F60" s="4"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -3151,7 +3169,7 @@
       <c r="E61" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="13">
         <v>1</v>
       </c>
       <c r="J61" s="1">
@@ -3174,7 +3192,7 @@
       <c r="E62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="13">
         <v>1</v>
       </c>
       <c r="H62" s="1">
@@ -3197,7 +3215,7 @@
       <c r="E63" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="13">
         <v>1</v>
       </c>
       <c r="H63" s="1">
@@ -3220,6 +3238,7 @@
       <c r="E64" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -3237,6 +3256,7 @@
       <c r="E65" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="F65" s="13"/>
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -3254,6 +3274,7 @@
       <c r="E66" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="F66" s="13"/>
     </row>
     <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="4">

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="10950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19785" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3292,7 +3292,7 @@
       <c r="E67" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="13">
         <v>1</v>
       </c>
       <c r="G67" s="4"/>
@@ -3320,7 +3320,7 @@
       <c r="E68" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="13">
         <v>1</v>
       </c>
       <c r="G68" s="4"/>
@@ -3350,7 +3350,7 @@
       <c r="E69" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="13">
         <v>1</v>
       </c>
       <c r="G69" s="4"/>
@@ -3378,7 +3378,7 @@
       <c r="E70" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3398,7 +3398,7 @@
       <c r="E71" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3418,7 +3418,7 @@
       <c r="E72" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       <c r="E73" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3458,6 +3458,7 @@
       <c r="E74" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -3475,6 +3476,7 @@
       <c r="E75" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
@@ -3492,7 +3494,7 @@
       <c r="E76" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="13">
         <v>1</v>
       </c>
       <c r="G76" s="4"/>
@@ -3516,7 +3518,7 @@
       <c r="E77" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F77" s="4"/>
+      <c r="F77" s="13"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -3538,7 +3540,7 @@
       <c r="E78" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -3576,9 +3578,6 @@
       </c>
       <c r="E80" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="60" x14ac:dyDescent="0.25">

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3596,7 +3596,7 @@
       <c r="E81" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="13">
         <v>1</v>
       </c>
       <c r="G81" s="4"/>
@@ -3620,7 +3620,7 @@
       <c r="E82" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F82" s="4"/>
+      <c r="F82" s="13"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -3642,7 +3642,7 @@
       <c r="E83" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="13"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -3664,7 +3664,7 @@
       <c r="E84" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       <c r="E85" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3704,6 +3704,7 @@
       <c r="E86" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -3721,6 +3722,7 @@
       <c r="E87" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="F87" s="13"/>
     </row>
     <row r="88" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
@@ -3738,7 +3740,7 @@
       <c r="E88" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="13">
         <v>1</v>
       </c>
       <c r="G88" s="4"/>
@@ -3764,7 +3766,7 @@
       <c r="E89" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="13"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -3786,7 +3788,7 @@
       <c r="E90" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F90" s="4"/>
+      <c r="F90" s="13"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -3808,7 +3810,7 @@
       <c r="E91" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="13"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -3830,7 +3832,7 @@
       <c r="E92" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3850,7 +3852,7 @@
       <c r="E93" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="13">
         <v>1</v>
       </c>
       <c r="H93" s="1">
@@ -3873,6 +3875,7 @@
       <c r="E94" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="F94" s="13"/>
     </row>
     <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -3890,6 +3893,7 @@
       <c r="E95" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="F95" s="13"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
@@ -3929,6 +3933,7 @@
       <c r="E97" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="F97" s="13"/>
     </row>
     <row r="98" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -3946,7 +3951,7 @@
       <c r="E98" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="13">
         <v>1</v>
       </c>
       <c r="H98" s="1">
@@ -3972,7 +3977,7 @@
       <c r="E99" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="13">
         <v>1</v>
       </c>
       <c r="H99" s="1">
@@ -3998,7 +4003,7 @@
       <c r="E100" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="13">
         <v>1</v>
       </c>
       <c r="I100" s="1">
@@ -4021,7 +4026,7 @@
       <c r="E101" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="13">
         <v>1</v>
       </c>
       <c r="H101" s="1">
@@ -4044,6 +4049,7 @@
       <c r="E102" s="3" t="s">
         <v>124</v>
       </c>
+      <c r="F102" s="13"/>
     </row>
     <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
@@ -4061,7 +4067,7 @@
       <c r="E103" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="13">
         <v>1</v>
       </c>
       <c r="G103" s="4"/>
@@ -4085,7 +4091,7 @@
       <c r="E104" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="13">
         <v>1</v>
       </c>
       <c r="G104" s="4">
@@ -4113,7 +4119,7 @@
       <c r="E105" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="13">
         <v>1</v>
       </c>
       <c r="G105" s="4"/>
@@ -4137,7 +4143,7 @@
       <c r="E106" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="13">
         <v>1</v>
       </c>
       <c r="G106" s="4">
@@ -4169,7 +4175,7 @@
       <c r="E107" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="13">
         <v>1</v>
       </c>
       <c r="G107" s="4"/>
@@ -4197,7 +4203,7 @@
       <c r="E108" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F108" s="4"/>
+      <c r="F108" s="13"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
@@ -4219,6 +4225,7 @@
       <c r="E109" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="F109" s="13"/>
       <c r="J109" s="1">
         <v>1</v>
       </c>
@@ -4239,6 +4246,7 @@
       <c r="E110" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="F110" s="13"/>
       <c r="G110" s="1">
         <v>1</v>
       </c>
@@ -4259,7 +4267,7 @@
       <c r="E111" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="13">
         <v>1</v>
       </c>
       <c r="G111" s="1">
@@ -4282,6 +4290,7 @@
       <c r="E112" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="F112" s="13"/>
       <c r="I112" s="1">
         <v>1</v>
       </c>
@@ -4302,7 +4311,7 @@
       <c r="E113" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4322,6 +4331,7 @@
       <c r="E114" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="F114" s="13"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -4339,6 +4349,7 @@
       <c r="E115" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="F115" s="13"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -4356,6 +4367,7 @@
       <c r="E116" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="F116" s="13"/>
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
@@ -4373,6 +4385,7 @@
       <c r="E117" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="F117" s="13"/>
     </row>
     <row r="118" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
@@ -4390,7 +4403,7 @@
       <c r="E118" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F118" s="4">
+      <c r="F118" s="14">
         <v>1</v>
       </c>
       <c r="G118" s="4">
@@ -4416,7 +4429,7 @@
       <c r="E119" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="14">
         <v>1</v>
       </c>
       <c r="G119" s="4">
@@ -4444,7 +4457,7 @@
       <c r="E120" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F120" s="4">
+      <c r="F120" s="14">
         <v>1</v>
       </c>
       <c r="G120" s="4"/>
@@ -4468,7 +4481,7 @@
       <c r="E121" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F121" s="4">
+      <c r="F121" s="14">
         <v>1</v>
       </c>
       <c r="G121" s="4"/>
@@ -4492,7 +4505,7 @@
       <c r="E122" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="14">
         <v>1</v>
       </c>
       <c r="G122" s="4">
@@ -4518,7 +4531,7 @@
       <c r="E123" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F123" s="4"/>
+      <c r="F123" s="14"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
@@ -4540,7 +4553,7 @@
       <c r="E124" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F124" s="4"/>
+      <c r="F124" s="14"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
@@ -4562,7 +4575,7 @@
       <c r="E125" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F125" s="4"/>
+      <c r="F125" s="14"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
@@ -4584,7 +4597,7 @@
       <c r="E126" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="13">
         <v>1</v>
       </c>
       <c r="G126" s="1">
@@ -4610,7 +4623,7 @@
       <c r="E127" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="13">
         <v>1</v>
       </c>
       <c r="G127" s="1">
@@ -4636,6 +4649,7 @@
       <c r="E128" s="3" t="s">
         <v>148</v>
       </c>
+      <c r="F128" s="13"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -4653,6 +4667,7 @@
       <c r="E129" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="F129" s="13"/>
     </row>
     <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -4670,6 +4685,7 @@
       <c r="E130" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="F130" s="13"/>
     </row>
     <row r="131" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
@@ -4687,7 +4703,7 @@
       <c r="E131" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F131" s="4"/>
+      <c r="F131" s="13"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4">
@@ -4711,7 +4727,7 @@
       <c r="E132" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F132" s="4">
+      <c r="F132" s="13">
         <v>1</v>
       </c>
       <c r="G132" s="4">
@@ -4739,7 +4755,7 @@
       <c r="E133" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F133" s="4">
+      <c r="F133" s="13">
         <v>1</v>
       </c>
       <c r="G133" s="4">
@@ -4765,7 +4781,7 @@
       <c r="E134" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F134" s="4"/>
+      <c r="F134" s="13"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
@@ -4787,7 +4803,7 @@
       <c r="E135" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F135" s="4"/>
+      <c r="F135" s="13"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
@@ -4809,7 +4825,7 @@
       <c r="E136" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="13">
         <v>1</v>
       </c>
       <c r="G136" s="1">
@@ -4832,7 +4848,7 @@
       <c r="E137" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="13">
         <v>1</v>
       </c>
       <c r="G137" s="1">
@@ -4855,7 +4871,7 @@
       <c r="E138" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="13">
         <v>1</v>
       </c>
       <c r="G138" s="4"/>
@@ -4881,7 +4897,7 @@
       <c r="E139" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="13">
         <v>1</v>
       </c>
       <c r="G139" s="4"/>
@@ -4905,7 +4921,7 @@
       <c r="E140" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="13">
         <v>1</v>
       </c>
       <c r="G140" s="4"/>
@@ -4929,7 +4945,7 @@
       <c r="E141" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="13">
         <v>1</v>
       </c>
       <c r="G141" s="4"/>
@@ -4953,7 +4969,7 @@
       <c r="E142" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F142" s="4"/>
+      <c r="F142" s="13"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
@@ -4998,7 +5014,7 @@
       <c r="E144" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F144" s="4"/>
+      <c r="F144" s="13"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
@@ -5020,7 +5036,7 @@
       <c r="E145" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F145" s="4"/>
+      <c r="F145" s="13"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
@@ -5042,7 +5058,7 @@
       <c r="E146" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F146" s="4">
+      <c r="F146" s="13">
         <v>1</v>
       </c>
       <c r="G146" s="4"/>
@@ -5070,7 +5086,7 @@
       <c r="E147" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F147" s="4">
+      <c r="F147" s="13">
         <v>1</v>
       </c>
       <c r="G147" s="4"/>
@@ -5096,7 +5112,7 @@
       <c r="E148" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F148" s="4">
+      <c r="F148" s="13">
         <v>1</v>
       </c>
       <c r="G148" s="4"/>
@@ -5122,7 +5138,7 @@
       <c r="E149" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F149" s="4">
+      <c r="F149" s="13">
         <v>1</v>
       </c>
       <c r="G149" s="4">
@@ -5150,7 +5166,7 @@
       <c r="E150" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F150" s="4">
+      <c r="F150" s="13">
         <v>1</v>
       </c>
       <c r="G150" s="4"/>
@@ -5176,7 +5192,7 @@
       <c r="E151" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F151" s="4"/>
+      <c r="F151" s="13"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -5198,7 +5214,7 @@
       <c r="E152" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152" s="13">
         <v>1</v>
       </c>
       <c r="H152" s="1">
@@ -5224,7 +5240,7 @@
       <c r="E153" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="13">
         <v>1</v>
       </c>
       <c r="G153" s="1">
@@ -5247,7 +5263,7 @@
       <c r="E154" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154" s="13">
         <v>1</v>
       </c>
       <c r="I154" s="1">
@@ -5270,7 +5286,7 @@
       <c r="E155" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155" s="13">
         <v>1</v>
       </c>
       <c r="H155" s="1">
@@ -5293,7 +5309,7 @@
       <c r="E156" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="13">
         <v>1</v>
       </c>
       <c r="H156" s="1">
@@ -5319,7 +5335,7 @@
       <c r="E157" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157" s="13">
         <v>1</v>
       </c>
       <c r="G157" s="1">
@@ -5345,7 +5361,7 @@
       <c r="E158" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158" s="13">
         <v>1</v>
       </c>
       <c r="G158" s="1">
@@ -5371,6 +5387,7 @@
       <c r="E159" s="3" t="s">
         <v>184</v>
       </c>
+      <c r="F159" s="13"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -5388,6 +5405,7 @@
       <c r="E160" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="F160" s="13"/>
     </row>
     <row r="161" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="4">

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1444,7 +1444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1475,6 +1475,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,7 +1516,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1532,6 +1538,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -1542,6 +1551,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FF99FFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1818,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="E187" workbookViewId="0">
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5423,7 +5438,7 @@
       <c r="E161" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F161" s="4">
+      <c r="F161" s="13">
         <v>1</v>
       </c>
       <c r="G161" s="4">
@@ -5453,7 +5468,7 @@
       <c r="E162" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F162" s="4">
+      <c r="F162" s="13">
         <v>1</v>
       </c>
       <c r="G162" s="4">
@@ -5483,7 +5498,7 @@
       <c r="E163" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F163" s="4">
+      <c r="F163" s="13">
         <v>1</v>
       </c>
       <c r="G163" s="4">
@@ -5511,7 +5526,7 @@
       <c r="E164" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F164" s="4">
+      <c r="F164" s="13">
         <v>1</v>
       </c>
       <c r="G164" s="4"/>
@@ -5537,7 +5552,7 @@
       <c r="E165" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F165" s="4">
+      <c r="F165" s="13">
         <v>1</v>
       </c>
       <c r="G165" s="4"/>
@@ -5563,7 +5578,7 @@
       <c r="E166" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F166" s="4"/>
+      <c r="F166" s="13"/>
       <c r="G166" s="4">
         <v>1</v>
       </c>
@@ -5591,7 +5606,7 @@
       <c r="E167" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F167" s="4">
+      <c r="F167" s="13">
         <v>1</v>
       </c>
       <c r="G167" s="4">
@@ -5619,7 +5634,7 @@
       <c r="E168" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F168" s="4">
+      <c r="F168" s="13">
         <v>1</v>
       </c>
       <c r="G168" s="4">
@@ -5649,7 +5664,7 @@
       <c r="E169" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F169" s="4">
+      <c r="F169" s="13">
         <v>1</v>
       </c>
       <c r="G169" s="4"/>
@@ -5677,7 +5692,7 @@
       <c r="E170" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F170" s="4">
+      <c r="F170" s="13">
         <v>1</v>
       </c>
       <c r="G170" s="4">
@@ -5707,7 +5722,7 @@
       <c r="E171" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F171" s="4">
+      <c r="F171" s="13">
         <v>1</v>
       </c>
       <c r="G171" s="4">
@@ -5737,7 +5752,7 @@
       <c r="E172" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F172" s="4">
+      <c r="F172" s="13">
         <v>1</v>
       </c>
       <c r="G172" s="4">
@@ -5767,7 +5782,7 @@
       <c r="E173" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F173" s="4"/>
+      <c r="F173" s="13"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
@@ -5789,7 +5804,7 @@
       <c r="E174" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174" s="15">
         <v>1</v>
       </c>
       <c r="H174" s="1">
@@ -5812,6 +5827,7 @@
       <c r="E175" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="F175" s="15"/>
       <c r="H175" s="1">
         <v>1</v>
       </c>
@@ -5832,6 +5848,8 @@
       <c r="E176" s="3" t="s">
         <v>202</v>
       </c>
+      <c r="F176" s="15"/>
+      <c r="I176" s="16"/>
     </row>
     <row r="177" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
@@ -5849,7 +5867,7 @@
       <c r="E177" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177" s="15">
         <v>1</v>
       </c>
     </row>
@@ -5869,6 +5887,7 @@
       <c r="E178" s="3" t="s">
         <v>204</v>
       </c>
+      <c r="F178" s="15"/>
     </row>
     <row r="179" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
@@ -5886,7 +5905,7 @@
       <c r="E179" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F179" s="4">
+      <c r="F179" s="17">
         <v>1</v>
       </c>
       <c r="G179" s="4"/>
@@ -5912,7 +5931,7 @@
       <c r="E180" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F180" s="4">
+      <c r="F180" s="17">
         <v>1</v>
       </c>
       <c r="G180" s="4"/>
@@ -5938,7 +5957,7 @@
       <c r="E181" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F181" s="4"/>
+      <c r="F181" s="17"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
@@ -5960,7 +5979,7 @@
       <c r="E182" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F182" s="1">
+      <c r="F182" s="15">
         <v>1</v>
       </c>
       <c r="H182" s="1">
@@ -5989,6 +6008,7 @@
       <c r="E183" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="F183" s="15"/>
     </row>
     <row r="184" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
@@ -6006,7 +6026,7 @@
       <c r="E184" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F184" s="4">
+      <c r="F184" s="17">
         <v>1</v>
       </c>
       <c r="G184" s="4">
@@ -6032,7 +6052,7 @@
       <c r="E185" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F185" s="4">
+      <c r="F185" s="17">
         <v>1</v>
       </c>
       <c r="G185" s="4">
@@ -6058,7 +6078,7 @@
       <c r="E186" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F186" s="4">
+      <c r="F186" s="17">
         <v>1</v>
       </c>
       <c r="G186" s="4">
@@ -6086,7 +6106,7 @@
       <c r="E187" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="F187" s="4"/>
+      <c r="F187" s="17"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
@@ -6108,7 +6128,7 @@
       <c r="E188" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F188" s="4"/>
+      <c r="F188" s="17"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19785" windowHeight="10950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1516,7 +1516,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1541,6 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -1833,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E187" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4085,7 +4086,7 @@
       <c r="F103" s="13">
         <v>1</v>
       </c>
-      <c r="G103" s="4"/>
+      <c r="G103" s="13"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -4109,7 +4110,7 @@
       <c r="F104" s="13">
         <v>1</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G104" s="13">
         <v>1</v>
       </c>
       <c r="H104" s="4"/>
@@ -4137,7 +4138,7 @@
       <c r="F105" s="13">
         <v>1</v>
       </c>
-      <c r="G105" s="4"/>
+      <c r="G105" s="13"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -4161,7 +4162,7 @@
       <c r="F106" s="13">
         <v>1</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="13">
         <v>1</v>
       </c>
       <c r="H106" s="4">
@@ -4193,7 +4194,7 @@
       <c r="F107" s="13">
         <v>1</v>
       </c>
-      <c r="G107" s="4"/>
+      <c r="G107" s="13"/>
       <c r="H107" s="4">
         <v>1</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>131</v>
       </c>
       <c r="F108" s="13"/>
-      <c r="G108" s="4"/>
+      <c r="G108" s="13"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -6150,6 +6151,7 @@
       <c r="E189" s="3" t="s">
         <v>219</v>
       </c>
+      <c r="F189" s="13"/>
     </row>
     <row r="190" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
@@ -6167,7 +6169,7 @@
       <c r="E190" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F190" s="1">
+      <c r="F190" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6187,6 +6189,7 @@
       <c r="E191" s="3" t="s">
         <v>221</v>
       </c>
+      <c r="F191" s="13"/>
     </row>
     <row r="192" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
@@ -6204,7 +6207,7 @@
       <c r="E192" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F192" s="4">
+      <c r="F192" s="17">
         <v>1</v>
       </c>
       <c r="G192" s="4"/>
@@ -6230,7 +6233,7 @@
       <c r="E193" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F193" s="1">
+      <c r="F193" s="13">
         <v>1</v>
       </c>
       <c r="H193" s="1">
@@ -6253,7 +6256,7 @@
       <c r="E194" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F194" s="1">
+      <c r="F194" s="13">
         <v>1</v>
       </c>
       <c r="H194" s="1">
@@ -6276,7 +6279,7 @@
       <c r="E195" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195" s="13">
         <v>1</v>
       </c>
       <c r="H195" s="1">
@@ -6299,6 +6302,7 @@
       <c r="E196" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="F196" s="13"/>
       <c r="H196" s="1">
         <v>1</v>
       </c>
@@ -6319,7 +6323,7 @@
       <c r="E197" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F197" s="1">
+      <c r="F197" s="13">
         <v>1</v>
       </c>
       <c r="H197" s="1">
@@ -6342,6 +6346,7 @@
       <c r="E198" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="F198" s="13"/>
       <c r="H198" s="1">
         <v>1</v>
       </c>
@@ -6362,6 +6367,7 @@
       <c r="E199" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="F199" s="13"/>
       <c r="H199" s="1">
         <v>1</v>
       </c>
@@ -6382,6 +6388,7 @@
       <c r="E200" s="3" t="s">
         <v>231</v>
       </c>
+      <c r="F200" s="13"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
@@ -6399,7 +6406,7 @@
       <c r="E201" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F201" s="1">
+      <c r="F201" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6419,7 +6426,7 @@
       <c r="E202" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F202" s="1">
+      <c r="F202" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6439,6 +6446,7 @@
       <c r="E203" s="3" t="s">
         <v>221</v>
       </c>
+      <c r="F203" s="13"/>
     </row>
     <row r="204" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
@@ -6456,7 +6464,7 @@
       <c r="E204" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F204" s="4">
+      <c r="F204" s="13">
         <v>1</v>
       </c>
       <c r="G204" s="4"/>
@@ -6484,7 +6492,7 @@
       <c r="E205" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F205" s="4">
+      <c r="F205" s="13">
         <v>1</v>
       </c>
       <c r="G205" s="4"/>
@@ -6512,7 +6520,7 @@
       <c r="E206" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F206" s="4">
+      <c r="F206" s="13">
         <v>1</v>
       </c>
       <c r="G206" s="4"/>
@@ -6540,7 +6548,7 @@
       <c r="E207" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F207" s="4">
+      <c r="F207" s="13">
         <v>1</v>
       </c>
       <c r="G207" s="4"/>
@@ -6566,7 +6574,7 @@
       <c r="E208" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F208" s="4">
+      <c r="F208" s="13">
         <v>1</v>
       </c>
       <c r="G208" s="4"/>
@@ -6592,7 +6600,7 @@
       <c r="E209" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="F209" s="4">
+      <c r="F209" s="13">
         <v>1</v>
       </c>
       <c r="G209" s="4"/>
@@ -6618,7 +6626,7 @@
       <c r="E210" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F210" s="4">
+      <c r="F210" s="13">
         <v>1</v>
       </c>
       <c r="G210" s="4"/>
@@ -6642,7 +6650,7 @@
       <c r="E211" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F211" s="4">
+      <c r="F211" s="13">
         <v>1</v>
       </c>
       <c r="G211" s="4"/>
@@ -6666,7 +6674,7 @@
       <c r="E212" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F212" s="4"/>
+      <c r="F212" s="13"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
@@ -6688,7 +6696,7 @@
       <c r="E213" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F213" s="1">
+      <c r="F213" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6708,7 +6716,7 @@
       <c r="E214" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F214" s="1">
+      <c r="F214" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6728,7 +6736,7 @@
       <c r="E215" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F215" s="1">
+      <c r="F215" s="13">
         <v>1</v>
       </c>
       <c r="H215" s="1">
@@ -6751,7 +6759,7 @@
       <c r="E216" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F216" s="1">
+      <c r="F216" s="13">
         <v>1</v>
       </c>
       <c r="G216" s="1">
@@ -6774,7 +6782,7 @@
       <c r="E217" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F217" s="1">
+      <c r="F217" s="13">
         <v>1</v>
       </c>
       <c r="G217" s="1">
@@ -6800,6 +6808,7 @@
       <c r="E218" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="F218" s="13"/>
     </row>
     <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
@@ -6817,7 +6826,7 @@
       <c r="E219" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F219" s="4">
+      <c r="F219" s="13">
         <v>1</v>
       </c>
       <c r="G219" s="4"/>
@@ -6841,7 +6850,7 @@
       <c r="E220" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F220" s="4">
+      <c r="F220" s="13">
         <v>1</v>
       </c>
       <c r="G220" s="4">
@@ -6869,7 +6878,7 @@
       <c r="E221" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="F221" s="4">
+      <c r="F221" s="13">
         <v>1</v>
       </c>
       <c r="G221" s="4">
@@ -6895,7 +6904,7 @@
       <c r="E222" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F222" s="4"/>
+      <c r="F222" s="13"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
@@ -6917,7 +6926,7 @@
       <c r="E223" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F223" s="1">
+      <c r="F223" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6937,7 +6946,7 @@
       <c r="E224" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F224" s="1">
+      <c r="F224" s="13">
         <v>1</v>
       </c>
       <c r="H224" s="1">
@@ -6960,7 +6969,7 @@
       <c r="E225" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F225" s="1">
+      <c r="F225" s="13">
         <v>1</v>
       </c>
       <c r="I225" s="1">
@@ -6983,7 +6992,7 @@
       <c r="E226" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F226" s="1">
+      <c r="F226" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7003,7 +7012,7 @@
       <c r="E227" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F227" s="1">
+      <c r="F227" s="13">
         <v>1</v>
       </c>
       <c r="H227" s="1">
@@ -7029,7 +7038,7 @@
       <c r="E228" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F228" s="1">
+      <c r="F228" s="13">
         <v>1</v>
       </c>
       <c r="H228" s="1">
@@ -7055,7 +7064,7 @@
       <c r="E229" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F229" s="1">
+      <c r="F229" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7075,6 +7084,7 @@
       <c r="E230" s="3" t="s">
         <v>259</v>
       </c>
+      <c r="F230" s="13"/>
     </row>
     <row r="231" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
@@ -7092,7 +7102,7 @@
       <c r="E231" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F231" s="1">
+      <c r="F231" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7112,7 +7122,7 @@
       <c r="E232" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F232" s="1">
+      <c r="F232" s="13">
         <v>1</v>
       </c>
     </row>
@@ -7132,6 +7142,7 @@
       <c r="E233" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="F233" s="13"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
@@ -7317,6 +7328,7 @@
       <c r="E241" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F241" s="13"/>
       <c r="H241" s="12"/>
       <c r="I241" s="12"/>
     </row>
@@ -7336,6 +7348,7 @@
       <c r="E242" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="F242" s="13"/>
       <c r="H242" s="12">
         <v>1</v>
       </c>
@@ -7360,6 +7373,7 @@
       <c r="E243" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="F243" s="13"/>
       <c r="H243" s="12"/>
       <c r="I243" s="12"/>
       <c r="J243" s="1">
@@ -7382,7 +7396,7 @@
       <c r="E244" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F244" s="1">
+      <c r="F244" s="13">
         <v>1</v>
       </c>
       <c r="H244" s="12"/>
@@ -7404,7 +7418,7 @@
       <c r="E245" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F245" s="1">
+      <c r="F245" s="13">
         <v>1</v>
       </c>
       <c r="H245" s="12"/>
@@ -7426,7 +7440,7 @@
       <c r="E246" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F246" s="1">
+      <c r="F246" s="13">
         <v>1</v>
       </c>
       <c r="H246" s="12"/>
@@ -7448,7 +7462,7 @@
       <c r="E247" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F247" s="1">
+      <c r="F247" s="13">
         <v>1</v>
       </c>
       <c r="H247" s="12"/>
@@ -7470,6 +7484,7 @@
       <c r="E248" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="F248" s="13"/>
       <c r="H248" s="12"/>
       <c r="I248" s="12"/>
     </row>
@@ -7489,7 +7504,7 @@
       <c r="E249" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F249" s="4"/>
+      <c r="F249" s="13"/>
       <c r="G249" s="4"/>
       <c r="H249" s="12"/>
       <c r="I249" s="12"/>
@@ -7511,7 +7526,7 @@
       <c r="E250" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F250" s="4">
+      <c r="F250" s="13">
         <v>1</v>
       </c>
       <c r="G250" s="4"/>
@@ -7535,7 +7550,7 @@
       <c r="E251" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F251" s="4">
+      <c r="F251" s="13">
         <v>1</v>
       </c>
       <c r="G251" s="4"/>
@@ -7559,7 +7574,7 @@
       <c r="E252" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F252" s="4">
+      <c r="F252" s="13">
         <v>1</v>
       </c>
       <c r="G252" s="4"/>
@@ -7583,7 +7598,7 @@
       <c r="E253" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F253" s="4">
+      <c r="F253" s="13">
         <v>1</v>
       </c>
       <c r="G253" s="4"/>
@@ -7607,7 +7622,7 @@
       <c r="E254" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="F254" s="4"/>
+      <c r="F254" s="13"/>
       <c r="G254" s="4"/>
       <c r="H254" s="12"/>
       <c r="I254" s="12"/>
@@ -7629,7 +7644,7 @@
       <c r="E255" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="F255" s="4"/>
+      <c r="F255" s="13"/>
       <c r="G255" s="4"/>
       <c r="H255" s="12"/>
       <c r="I255" s="12"/>
@@ -7651,7 +7666,7 @@
       <c r="E256" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="F256" s="4"/>
+      <c r="F256" s="13"/>
       <c r="G256" s="4"/>
       <c r="H256" s="12"/>
       <c r="I256" s="12"/>
@@ -7673,6 +7688,7 @@
       <c r="E257" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F257" s="13"/>
       <c r="H257" s="12"/>
       <c r="I257" s="12"/>
     </row>
@@ -7692,7 +7708,7 @@
       <c r="E258" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F258" s="1">
+      <c r="F258" s="13">
         <v>1</v>
       </c>
       <c r="H258" s="12"/>
@@ -7714,7 +7730,7 @@
       <c r="E259" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F259" s="1">
+      <c r="F259" s="13">
         <v>1</v>
       </c>
       <c r="H259" s="12"/>
@@ -7736,7 +7752,7 @@
       <c r="E260" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F260" s="1">
+      <c r="F260" s="13">
         <v>1</v>
       </c>
       <c r="H260" s="12"/>
@@ -7758,6 +7774,7 @@
       <c r="E261" s="3" t="s">
         <v>294</v>
       </c>
+      <c r="F261" s="13"/>
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
     </row>
@@ -7777,7 +7794,7 @@
       <c r="E262" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F262" s="4"/>
+      <c r="F262" s="13"/>
       <c r="G262" s="4"/>
       <c r="H262" s="12"/>
       <c r="I262" s="12"/>
@@ -7799,7 +7816,7 @@
       <c r="E263" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F263" s="4">
+      <c r="F263" s="13">
         <v>1</v>
       </c>
       <c r="G263" s="4"/>
@@ -7823,7 +7840,7 @@
       <c r="E264" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="F264" s="4"/>
+      <c r="F264" s="13"/>
       <c r="G264" s="4"/>
       <c r="H264" s="12"/>
       <c r="I264" s="12"/>
@@ -7845,7 +7862,7 @@
       <c r="E265" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="F265" s="4"/>
+      <c r="F265" s="13"/>
       <c r="G265" s="4"/>
       <c r="H265" s="12"/>
       <c r="I265" s="12"/>
@@ -7867,6 +7884,7 @@
       <c r="E266" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F266" s="13"/>
       <c r="H266" s="12"/>
       <c r="I266" s="12"/>
     </row>
@@ -7886,7 +7904,7 @@
       <c r="E267" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F267" s="1">
+      <c r="F267" s="13">
         <v>1</v>
       </c>
       <c r="H267" s="12"/>
@@ -7908,7 +7926,7 @@
       <c r="E268" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F268" s="1">
+      <c r="F268" s="13">
         <v>1</v>
       </c>
       <c r="H268" s="12"/>
@@ -7930,6 +7948,7 @@
       <c r="E269" s="3" t="s">
         <v>302</v>
       </c>
+      <c r="F269" s="13"/>
       <c r="H269" s="12"/>
       <c r="I269" s="12"/>
     </row>
@@ -7949,6 +7968,7 @@
       <c r="E270" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="F270" s="13"/>
       <c r="H270" s="12"/>
       <c r="I270" s="12"/>
     </row>
@@ -7968,6 +7988,7 @@
       <c r="E271" s="3" t="s">
         <v>298</v>
       </c>
+      <c r="F271" s="13"/>
       <c r="H271" s="12"/>
       <c r="I271" s="12"/>
     </row>
@@ -7987,7 +8008,7 @@
       <c r="E272" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F272" s="4"/>
+      <c r="F272" s="13"/>
       <c r="G272" s="4"/>
       <c r="H272" s="12"/>
       <c r="I272" s="12"/>
@@ -8009,7 +8030,7 @@
       <c r="E273" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="F273" s="4">
+      <c r="F273" s="13">
         <v>1</v>
       </c>
       <c r="G273" s="4"/>
@@ -8033,7 +8054,7 @@
       <c r="E274" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="F274" s="4">
+      <c r="F274" s="13">
         <v>1</v>
       </c>
       <c r="G274" s="4">
@@ -8059,7 +8080,7 @@
       <c r="E275" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F275" s="4"/>
+      <c r="F275" s="13"/>
       <c r="G275" s="4"/>
       <c r="H275" s="12"/>
       <c r="I275" s="12"/>
@@ -8081,7 +8102,7 @@
       <c r="E276" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="F276" s="4"/>
+      <c r="F276" s="13"/>
       <c r="G276" s="4"/>
       <c r="H276" s="12"/>
       <c r="I276" s="12"/>
@@ -8103,6 +8124,7 @@
       <c r="E277" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F277" s="13"/>
       <c r="H277" s="12"/>
       <c r="I277" s="12"/>
     </row>
@@ -8122,7 +8144,7 @@
       <c r="E278" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F278" s="1">
+      <c r="F278" s="13">
         <v>1</v>
       </c>
       <c r="H278" s="12"/>
@@ -8144,7 +8166,7 @@
       <c r="E279" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F279" s="1">
+      <c r="F279" s="13">
         <v>1</v>
       </c>
       <c r="H279" s="12"/>
@@ -8166,7 +8188,7 @@
       <c r="E280" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F280" s="1">
+      <c r="F280" s="13">
         <v>1</v>
       </c>
       <c r="H280" s="12"/>
@@ -8188,7 +8210,7 @@
       <c r="E281" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F281" s="1">
+      <c r="F281" s="13">
         <v>1</v>
       </c>
       <c r="H281" s="12"/>
@@ -8210,7 +8232,7 @@
       <c r="E282" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F282" s="1">
+      <c r="F282" s="13">
         <v>1</v>
       </c>
       <c r="H282" s="12"/>
@@ -8232,7 +8254,7 @@
       <c r="E283" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F283" s="1">
+      <c r="F283" s="13">
         <v>1</v>
       </c>
       <c r="H283" s="12"/>
@@ -8254,6 +8276,7 @@
       <c r="E284" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="F284" s="13"/>
       <c r="H284" s="12"/>
       <c r="I284" s="12"/>
     </row>
@@ -8273,6 +8296,7 @@
       <c r="E285" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="F285" s="13"/>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
     </row>
@@ -8292,6 +8316,7 @@
       <c r="E286" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="F286" s="13"/>
       <c r="H286" s="12"/>
       <c r="I286" s="12"/>
     </row>
@@ -8311,7 +8336,7 @@
       <c r="E287" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F287" s="4"/>
+      <c r="F287" s="13"/>
       <c r="G287" s="4"/>
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
@@ -8333,7 +8358,7 @@
       <c r="E288" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F288" s="4">
+      <c r="F288" s="13">
         <v>1</v>
       </c>
       <c r="G288" s="4"/>
@@ -8357,6 +8382,7 @@
       <c r="E289" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F289" s="13"/>
       <c r="H289" s="12"/>
       <c r="I289" s="12"/>
     </row>
@@ -8376,7 +8402,7 @@
       <c r="E290" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="F290" s="1">
+      <c r="F290" s="13">
         <v>1</v>
       </c>
       <c r="H290" s="12"/>
@@ -8398,7 +8424,7 @@
       <c r="E291" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F291" s="1">
+      <c r="F291" s="13">
         <v>1</v>
       </c>
       <c r="H291" s="12"/>
@@ -8420,6 +8446,7 @@
       <c r="E292" s="3" t="s">
         <v>319</v>
       </c>
+      <c r="F292" s="13"/>
       <c r="H292" s="12"/>
       <c r="I292" s="12"/>
     </row>
@@ -8439,6 +8466,7 @@
       <c r="E293" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="F293" s="13"/>
       <c r="H293" s="12"/>
       <c r="I293" s="12"/>
     </row>
@@ -8458,7 +8486,7 @@
       <c r="E294" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F294" s="4"/>
+      <c r="F294" s="13"/>
       <c r="G294" s="4"/>
       <c r="H294" s="12"/>
       <c r="I294" s="12"/>
@@ -8480,7 +8508,7 @@
       <c r="E295" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F295" s="4">
+      <c r="F295" s="13">
         <v>1</v>
       </c>
       <c r="G295" s="4"/>
@@ -8504,7 +8532,7 @@
       <c r="E296" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F296" s="4">
+      <c r="F296" s="13">
         <v>1</v>
       </c>
       <c r="G296" s="4">
@@ -8530,7 +8558,7 @@
       <c r="E297" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="F297" s="4"/>
+      <c r="F297" s="13"/>
       <c r="G297" s="4"/>
       <c r="H297" s="12"/>
       <c r="I297" s="12"/>
@@ -8552,7 +8580,7 @@
       <c r="E298" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="F298" s="4"/>
+      <c r="F298" s="13"/>
       <c r="G298" s="4"/>
       <c r="H298" s="12"/>
       <c r="I298" s="12"/>
@@ -8574,6 +8602,7 @@
       <c r="E299" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F299" s="13"/>
       <c r="H299" s="12"/>
       <c r="I299" s="12"/>
     </row>
@@ -8593,7 +8622,7 @@
       <c r="E300" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F300" s="1">
+      <c r="F300" s="13">
         <v>1</v>
       </c>
       <c r="H300" s="12"/>
@@ -8615,7 +8644,7 @@
       <c r="E301" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F301" s="1">
+      <c r="F301" s="13">
         <v>1</v>
       </c>
       <c r="G301" s="1">
@@ -8640,7 +8669,7 @@
       <c r="E302" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F302" s="1">
+      <c r="F302" s="13">
         <v>1</v>
       </c>
       <c r="G302" s="1">
@@ -8665,6 +8694,7 @@
       <c r="E303" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="F303" s="13"/>
       <c r="H303" s="12"/>
       <c r="I303" s="12"/>
     </row>
@@ -8684,6 +8714,7 @@
       <c r="E304" s="3" t="s">
         <v>298</v>
       </c>
+      <c r="F304" s="13"/>
       <c r="H304" s="12"/>
       <c r="I304" s="12"/>
     </row>
@@ -8703,7 +8734,7 @@
       <c r="E305" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F305" s="4"/>
+      <c r="F305" s="13"/>
       <c r="G305" s="4"/>
       <c r="H305" s="12"/>
       <c r="I305" s="12"/>
@@ -8725,7 +8756,7 @@
       <c r="E306" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F306" s="4">
+      <c r="F306" s="13">
         <v>1</v>
       </c>
       <c r="G306" s="4"/>
@@ -8749,6 +8780,7 @@
       <c r="E307" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F307" s="13"/>
       <c r="H307" s="12"/>
       <c r="I307" s="12"/>
     </row>
@@ -8768,7 +8800,7 @@
       <c r="E308" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F308" s="1">
+      <c r="F308" s="13">
         <v>1</v>
       </c>
       <c r="H308" s="12"/>
@@ -8790,7 +8822,7 @@
       <c r="E309" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F309" s="1">
+      <c r="F309" s="13">
         <v>1</v>
       </c>
       <c r="H309" s="12"/>
@@ -8812,7 +8844,7 @@
       <c r="E310" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F310" s="1">
+      <c r="F310" s="13">
         <v>1</v>
       </c>
       <c r="H310" s="12"/>
@@ -8834,6 +8866,7 @@
       <c r="E311" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="F311" s="13"/>
       <c r="H311" s="12"/>
       <c r="I311" s="12"/>
     </row>
@@ -8853,6 +8886,7 @@
       <c r="E312" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="F312" s="13"/>
       <c r="H312" s="12"/>
       <c r="I312" s="12"/>
     </row>
@@ -8872,6 +8906,7 @@
       <c r="E313" s="3" t="s">
         <v>333</v>
       </c>
+      <c r="F313" s="13"/>
       <c r="H313" s="12"/>
       <c r="I313" s="12"/>
     </row>
@@ -8891,6 +8926,7 @@
       <c r="E314" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="F314" s="13"/>
       <c r="H314" s="12"/>
       <c r="I314" s="12"/>
     </row>
@@ -8910,7 +8946,7 @@
       <c r="E315" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F315" s="4"/>
+      <c r="F315" s="13"/>
       <c r="G315" s="4"/>
       <c r="H315" s="12"/>
       <c r="I315" s="12"/>
@@ -8932,7 +8968,7 @@
       <c r="E316" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="F316" s="4">
+      <c r="F316" s="13">
         <v>1</v>
       </c>
       <c r="G316" s="4"/>
@@ -8956,7 +8992,7 @@
       <c r="E317" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F317" s="4">
+      <c r="F317" s="13">
         <v>1</v>
       </c>
       <c r="G317" s="4"/>
@@ -8980,7 +9016,7 @@
       <c r="E318" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F318" s="4">
+      <c r="F318" s="13">
         <v>1</v>
       </c>
       <c r="G318" s="4"/>
@@ -9004,7 +9040,7 @@
       <c r="E319" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F319" s="4">
+      <c r="F319" s="13">
         <v>1</v>
       </c>
       <c r="G319" s="4"/>
@@ -9028,7 +9064,7 @@
       <c r="E320" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="F320" s="4"/>
+      <c r="F320" s="13"/>
       <c r="G320" s="4"/>
       <c r="H320" s="12"/>
       <c r="I320" s="12"/>
@@ -9050,7 +9086,7 @@
       <c r="E321" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F321" s="4"/>
+      <c r="F321" s="13"/>
       <c r="G321" s="4"/>
       <c r="H321" s="12"/>
       <c r="I321" s="12"/>
@@ -9072,6 +9108,7 @@
       <c r="E322" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F322" s="13"/>
       <c r="H322" s="12"/>
       <c r="I322" s="12"/>
     </row>
@@ -9091,7 +9128,7 @@
       <c r="E323" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F323" s="1">
+      <c r="F323" s="13">
         <v>1</v>
       </c>
       <c r="H323" s="12"/>
@@ -9113,7 +9150,7 @@
       <c r="E324" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F324" s="1">
+      <c r="F324" s="13">
         <v>1</v>
       </c>
       <c r="H324" s="12"/>
@@ -9135,7 +9172,7 @@
       <c r="E325" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="F325" s="1">
+      <c r="F325" s="13">
         <v>1</v>
       </c>
       <c r="H325" s="12"/>
@@ -9157,7 +9194,7 @@
       <c r="E326" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="F326" s="1">
+      <c r="F326" s="13">
         <v>1</v>
       </c>
       <c r="H326" s="12"/>
@@ -9179,7 +9216,7 @@
       <c r="E327" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="F327" s="1">
+      <c r="F327" s="13">
         <v>1</v>
       </c>
       <c r="H327" s="12"/>
@@ -9201,6 +9238,7 @@
       <c r="E328" s="3" t="s">
         <v>347</v>
       </c>
+      <c r="F328" s="13"/>
       <c r="H328" s="12"/>
       <c r="I328" s="12"/>
     </row>
@@ -9220,6 +9258,7 @@
       <c r="E329" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="F329" s="13"/>
       <c r="H329" s="12"/>
       <c r="I329" s="12"/>
     </row>
@@ -9239,7 +9278,7 @@
       <c r="E330" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F330" s="4"/>
+      <c r="F330" s="13"/>
       <c r="G330" s="4"/>
       <c r="H330" s="12"/>
       <c r="I330" s="12"/>
@@ -9261,7 +9300,7 @@
       <c r="E331" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="F331" s="4">
+      <c r="F331" s="13">
         <v>1</v>
       </c>
       <c r="G331" s="4"/>
@@ -9285,7 +9324,7 @@
       <c r="E332" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="F332" s="4"/>
+      <c r="F332" s="13"/>
       <c r="G332" s="4"/>
       <c r="H332" s="12"/>
       <c r="I332" s="12"/>
@@ -9307,7 +9346,7 @@
       <c r="E333" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="F333" s="4"/>
+      <c r="F333" s="13"/>
       <c r="G333" s="4"/>
       <c r="H333" s="12"/>
       <c r="I333" s="12"/>
@@ -9329,6 +9368,7 @@
       <c r="E334" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F334" s="13"/>
       <c r="H334" s="12"/>
       <c r="I334" s="12"/>
     </row>
@@ -9348,7 +9388,7 @@
       <c r="E335" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F335" s="1">
+      <c r="F335" s="13">
         <v>1</v>
       </c>
       <c r="G335" s="1">
@@ -9373,6 +9413,7 @@
       <c r="E336" s="3" t="s">
         <v>353</v>
       </c>
+      <c r="F336" s="13"/>
       <c r="H336" s="12"/>
       <c r="I336" s="12"/>
     </row>
@@ -9392,7 +9433,7 @@
       <c r="E337" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F337" s="4"/>
+      <c r="F337" s="13"/>
       <c r="G337" s="4"/>
       <c r="H337" s="12"/>
       <c r="I337" s="12"/>
@@ -9414,7 +9455,7 @@
       <c r="E338" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F338" s="4">
+      <c r="F338" s="13">
         <v>1</v>
       </c>
       <c r="G338" s="4"/>
@@ -9438,7 +9479,7 @@
       <c r="E339" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F339" s="4">
+      <c r="F339" s="13">
         <v>1</v>
       </c>
       <c r="G339" s="4"/>
@@ -9462,7 +9503,7 @@
       <c r="E340" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F340" s="4">
+      <c r="F340" s="13">
         <v>1</v>
       </c>
       <c r="G340" s="4"/>
@@ -9486,7 +9527,7 @@
       <c r="E341" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F341" s="4"/>
+      <c r="F341" s="13"/>
       <c r="G341" s="4"/>
       <c r="H341" s="12"/>
       <c r="I341" s="12"/>
@@ -9508,7 +9549,7 @@
       <c r="E342" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F342" s="4"/>
+      <c r="F342" s="13"/>
       <c r="G342" s="4"/>
       <c r="H342" s="12"/>
       <c r="I342" s="12"/>
@@ -9530,7 +9571,7 @@
       <c r="E343" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F343" s="4"/>
+      <c r="F343" s="13"/>
       <c r="G343" s="4"/>
       <c r="H343" s="12"/>
       <c r="I343" s="12"/>
@@ -9552,6 +9593,7 @@
       <c r="E344" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F344" s="13"/>
       <c r="H344" s="12"/>
       <c r="I344" s="12"/>
     </row>
@@ -9571,7 +9613,7 @@
       <c r="E345" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F345" s="1">
+      <c r="F345" s="13">
         <v>1</v>
       </c>
       <c r="G345" s="1">
@@ -9596,7 +9638,7 @@
       <c r="E346" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="F346" s="1">
+      <c r="F346" s="13">
         <v>1</v>
       </c>
       <c r="G346" s="1">
@@ -9621,6 +9663,7 @@
       <c r="E347" s="3" t="s">
         <v>362</v>
       </c>
+      <c r="F347" s="13"/>
       <c r="H347" s="12"/>
       <c r="I347" s="12"/>
     </row>
@@ -9640,6 +9683,7 @@
       <c r="E348" s="3" t="s">
         <v>363</v>
       </c>
+      <c r="F348" s="13"/>
       <c r="H348" s="12"/>
       <c r="I348" s="12"/>
     </row>
@@ -9659,6 +9703,7 @@
       <c r="E349" s="3" t="s">
         <v>364</v>
       </c>
+      <c r="F349" s="13"/>
       <c r="H349" s="12"/>
       <c r="I349" s="12"/>
     </row>
@@ -9678,7 +9723,7 @@
       <c r="E350" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F350" s="4"/>
+      <c r="F350" s="13"/>
       <c r="G350" s="4"/>
       <c r="H350" s="12"/>
       <c r="I350" s="12"/>
@@ -9700,7 +9745,7 @@
       <c r="E351" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="F351" s="4">
+      <c r="F351" s="13">
         <v>1</v>
       </c>
       <c r="G351" s="4"/>
@@ -9724,7 +9769,7 @@
       <c r="E352" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="F352" s="4">
+      <c r="F352" s="13">
         <v>1</v>
       </c>
       <c r="G352" s="4"/>
@@ -9748,7 +9793,7 @@
       <c r="E353" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="F353" s="4">
+      <c r="F353" s="13">
         <v>1</v>
       </c>
       <c r="G353" s="4"/>
@@ -9772,7 +9817,7 @@
       <c r="E354" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F354" s="4"/>
+      <c r="F354" s="13"/>
       <c r="G354" s="4"/>
       <c r="H354" s="12"/>
       <c r="I354" s="12"/>
@@ -9794,7 +9839,7 @@
       <c r="E355" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="F355" s="4"/>
+      <c r="F355" s="13"/>
       <c r="G355" s="4"/>
       <c r="H355" s="12"/>
       <c r="I355" s="12"/>
@@ -10041,6 +10086,7 @@
       <c r="E367" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F367" s="13"/>
       <c r="H367" s="12"/>
       <c r="I367" s="12"/>
     </row>
@@ -10060,7 +10106,7 @@
       <c r="E368" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="F368" s="1">
+      <c r="F368" s="13">
         <v>1</v>
       </c>
       <c r="H368" s="12"/>
@@ -10082,6 +10128,7 @@
       <c r="E369" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="F369" s="13"/>
       <c r="H369" s="12"/>
       <c r="I369" s="12"/>
     </row>
@@ -10101,6 +10148,7 @@
       <c r="E370" s="3" t="s">
         <v>385</v>
       </c>
+      <c r="F370" s="13"/>
       <c r="H370" s="12"/>
       <c r="I370" s="12"/>
     </row>
@@ -10120,6 +10168,7 @@
       <c r="E371" s="3" t="s">
         <v>386</v>
       </c>
+      <c r="F371" s="13"/>
       <c r="H371" s="12"/>
       <c r="I371" s="12"/>
     </row>
@@ -10139,6 +10188,7 @@
       <c r="E372" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="F372" s="13"/>
       <c r="H372" s="12"/>
       <c r="I372" s="12"/>
     </row>
@@ -10158,7 +10208,7 @@
       <c r="E373" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F373" s="4"/>
+      <c r="F373" s="13"/>
       <c r="G373" s="4"/>
       <c r="H373" s="12"/>
       <c r="I373" s="12"/>
@@ -10180,7 +10230,7 @@
       <c r="E374" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="F374" s="4">
+      <c r="F374" s="13">
         <v>1</v>
       </c>
       <c r="G374" s="4"/>
@@ -10204,7 +10254,7 @@
       <c r="E375" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="F375" s="4">
+      <c r="F375" s="13">
         <v>1</v>
       </c>
       <c r="G375" s="4"/>
@@ -10228,7 +10278,7 @@
       <c r="E376" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="F376" s="4">
+      <c r="F376" s="13">
         <v>1</v>
       </c>
       <c r="G376" s="4"/>
@@ -10252,7 +10302,7 @@
       <c r="E377" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="F377" s="4">
+      <c r="F377" s="13">
         <v>1</v>
       </c>
       <c r="G377" s="4"/>
@@ -10276,7 +10326,7 @@
       <c r="E378" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="F378" s="4">
+      <c r="F378" s="13">
         <v>1</v>
       </c>
       <c r="G378" s="4"/>
@@ -10300,7 +10350,7 @@
       <c r="E379" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="F379" s="4"/>
+      <c r="F379" s="13"/>
       <c r="G379" s="4"/>
       <c r="H379" s="12"/>
       <c r="I379" s="12"/>
@@ -10322,6 +10372,7 @@
       <c r="E380" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F380" s="13"/>
       <c r="H380" s="12"/>
       <c r="I380" s="12"/>
     </row>
@@ -10341,7 +10392,7 @@
       <c r="E381" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="F381" s="1">
+      <c r="F381" s="13">
         <v>1</v>
       </c>
       <c r="H381" s="12"/>
@@ -10363,7 +10414,7 @@
       <c r="E382" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="F382" s="1">
+      <c r="F382" s="13">
         <v>1</v>
       </c>
       <c r="H382" s="12"/>
@@ -10385,7 +10436,7 @@
       <c r="E383" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F383" s="1">
+      <c r="F383" s="13">
         <v>1</v>
       </c>
       <c r="H383" s="12"/>
@@ -10407,6 +10458,7 @@
       <c r="E384" s="3" t="s">
         <v>398</v>
       </c>
+      <c r="F384" s="13"/>
       <c r="H384" s="12"/>
       <c r="I384" s="12"/>
     </row>
@@ -10426,6 +10478,7 @@
       <c r="E385" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="F385" s="13"/>
       <c r="H385" s="12"/>
       <c r="I385" s="12"/>
     </row>
@@ -10445,7 +10498,7 @@
       <c r="E386" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F386" s="4"/>
+      <c r="F386" s="18"/>
       <c r="G386" s="4"/>
       <c r="H386" s="12"/>
       <c r="I386" s="12"/>
@@ -10467,7 +10520,7 @@
       <c r="E387" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="F387" s="4"/>
+      <c r="F387" s="18"/>
       <c r="G387" s="4"/>
       <c r="H387" s="12"/>
       <c r="I387" s="12"/>
@@ -10489,7 +10542,7 @@
       <c r="E388" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="F388" s="4"/>
+      <c r="F388" s="18"/>
       <c r="G388" s="4"/>
       <c r="H388" s="12"/>
       <c r="I388" s="12"/>
@@ -10511,6 +10564,7 @@
       <c r="E389" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="F389" s="13"/>
       <c r="H389" s="12"/>
       <c r="I389" s="12"/>
     </row>
@@ -10530,7 +10584,7 @@
       <c r="E390" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F390" s="1">
+      <c r="F390" s="13">
         <v>1</v>
       </c>
       <c r="H390" s="12"/>
@@ -10552,7 +10606,7 @@
       <c r="E391" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="F391" s="1">
+      <c r="F391" s="13">
         <v>1</v>
       </c>
       <c r="H391" s="12"/>
@@ -10574,7 +10628,7 @@
       <c r="E392" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F392" s="1">
+      <c r="F392" s="13">
         <v>1</v>
       </c>
       <c r="H392" s="12"/>
@@ -10596,7 +10650,7 @@
       <c r="E393" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="F393" s="1">
+      <c r="F393" s="13">
         <v>1</v>
       </c>
       <c r="H393" s="12"/>
@@ -10618,7 +10672,7 @@
       <c r="E394" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F394" s="1">
+      <c r="F394" s="13">
         <v>1</v>
       </c>
       <c r="H394" s="12"/>
@@ -10640,7 +10694,7 @@
       <c r="E395" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F395" s="1">
+      <c r="F395" s="13">
         <v>1</v>
       </c>
       <c r="H395" s="12"/>
@@ -10662,7 +10716,7 @@
       <c r="E396" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="F396" s="1">
+      <c r="F396" s="13">
         <v>1</v>
       </c>
       <c r="H396" s="12"/>
@@ -10684,7 +10738,7 @@
       <c r="E397" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="F397" s="1">
+      <c r="F397" s="13">
         <v>1</v>
       </c>
       <c r="H397" s="12"/>
@@ -10706,7 +10760,7 @@
       <c r="E398" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="F398" s="1">
+      <c r="F398" s="13">
         <v>1</v>
       </c>
       <c r="H398" s="12"/>
@@ -10728,6 +10782,7 @@
       <c r="E399" s="3" t="s">
         <v>370</v>
       </c>
+      <c r="F399" s="13"/>
       <c r="H399" s="12"/>
       <c r="I399" s="12"/>
     </row>
@@ -10747,7 +10802,7 @@
       <c r="E400" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="F400" s="4"/>
+      <c r="F400" s="13"/>
       <c r="G400" s="4"/>
       <c r="H400" s="12"/>
       <c r="I400" s="12"/>
@@ -10769,7 +10824,7 @@
       <c r="E401" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="F401" s="4">
+      <c r="F401" s="13">
         <v>1</v>
       </c>
       <c r="G401" s="4"/>
@@ -10793,7 +10848,7 @@
       <c r="E402" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="F402" s="4">
+      <c r="F402" s="13">
         <v>1</v>
       </c>
       <c r="G402" s="4"/>
@@ -10817,7 +10872,7 @@
       <c r="E403" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="F403" s="4"/>
+      <c r="F403" s="13"/>
       <c r="G403" s="4"/>
       <c r="H403" s="12"/>
       <c r="I403" s="12"/>
@@ -10839,7 +10894,7 @@
       <c r="E404" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="F404" s="4"/>
+      <c r="F404" s="13"/>
       <c r="G404" s="4"/>
       <c r="H404" s="12"/>
       <c r="I404" s="12"/>

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1444,7 +1444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1484,6 +1484,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1516,7 +1528,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1542,6 +1554,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -1554,6 +1570,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC6EFCE"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF99FFCC"/>
     </mruColors>
@@ -1834,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="H55" s="20"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4">
         <v>1</v>
@@ -3053,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="H56" s="4">
+      <c r="H56" s="20">
         <v>1</v>
       </c>
       <c r="I56" s="4">
@@ -3083,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="4">
+      <c r="H57" s="20">
         <v>1</v>
       </c>
       <c r="I57" s="4">
@@ -3111,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="4">
+      <c r="H58" s="20">
         <v>1</v>
       </c>
       <c r="I58" s="4">
@@ -3139,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="4"/>
-      <c r="H59" s="4">
+      <c r="H59" s="20">
         <v>1</v>
       </c>
       <c r="I59" s="4">
@@ -3165,7 +3182,7 @@
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="20"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
@@ -3188,6 +3205,7 @@
       <c r="F61" s="13">
         <v>1</v>
       </c>
+      <c r="H61" s="19"/>
       <c r="J61" s="1">
         <v>1</v>
       </c>
@@ -3211,7 +3229,7 @@
       <c r="F62" s="13">
         <v>1</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3234,7 +3252,7 @@
       <c r="F63" s="13">
         <v>1</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3255,6 +3273,7 @@
         <v>79</v>
       </c>
       <c r="F64" s="13"/>
+      <c r="H64" s="19"/>
     </row>
     <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -3273,6 +3292,7 @@
         <v>80</v>
       </c>
       <c r="F65" s="13"/>
+      <c r="H65" s="19"/>
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -3291,6 +3311,7 @@
         <v>81</v>
       </c>
       <c r="F66" s="13"/>
+      <c r="H66" s="19"/>
     </row>
     <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -4422,7 +4443,7 @@
       <c r="F118" s="14">
         <v>1</v>
       </c>
-      <c r="G118" s="4">
+      <c r="G118" s="13">
         <v>1</v>
       </c>
       <c r="H118" s="4"/>
@@ -4448,7 +4469,7 @@
       <c r="F119" s="14">
         <v>1</v>
       </c>
-      <c r="G119" s="4">
+      <c r="G119" s="13">
         <v>1</v>
       </c>
       <c r="H119" s="4">
@@ -4476,7 +4497,7 @@
       <c r="F120" s="14">
         <v>1</v>
       </c>
-      <c r="G120" s="4"/>
+      <c r="G120" s="13"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -4500,7 +4521,7 @@
       <c r="F121" s="14">
         <v>1</v>
       </c>
-      <c r="G121" s="4"/>
+      <c r="G121" s="13"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -4524,7 +4545,7 @@
       <c r="F122" s="14">
         <v>1</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="13">
         <v>1</v>
       </c>
       <c r="H122" s="4"/>
@@ -4548,7 +4569,7 @@
         <v>148</v>
       </c>
       <c r="F123" s="14"/>
-      <c r="G123" s="4"/>
+      <c r="G123" s="13"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
@@ -4570,7 +4591,7 @@
         <v>140</v>
       </c>
       <c r="F124" s="14"/>
-      <c r="G124" s="4"/>
+      <c r="G124" s="13"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -4592,7 +4613,7 @@
         <v>141</v>
       </c>
       <c r="F125" s="14"/>
-      <c r="G125" s="4"/>
+      <c r="G125" s="13"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -4616,7 +4637,7 @@
       <c r="F126" s="13">
         <v>1</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126" s="13">
         <v>1</v>
       </c>
       <c r="I126" s="1">
@@ -4642,7 +4663,7 @@
       <c r="F127" s="13">
         <v>1</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127" s="13">
         <v>1</v>
       </c>
       <c r="H127" s="1">
@@ -4666,6 +4687,7 @@
         <v>148</v>
       </c>
       <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -4684,6 +4706,7 @@
         <v>140</v>
       </c>
       <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -4702,6 +4725,7 @@
         <v>141</v>
       </c>
       <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
@@ -4720,7 +4744,7 @@
         <v>153</v>
       </c>
       <c r="F131" s="13"/>
-      <c r="G131" s="4"/>
+      <c r="G131" s="20"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4">
         <v>1</v>
@@ -4746,7 +4770,7 @@
       <c r="F132" s="13">
         <v>1</v>
       </c>
-      <c r="G132" s="4">
+      <c r="G132" s="20">
         <v>1</v>
       </c>
       <c r="H132" s="4"/>
@@ -4774,7 +4798,7 @@
       <c r="F133" s="13">
         <v>1</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="20">
         <v>1</v>
       </c>
       <c r="H133" s="4"/>
@@ -4798,7 +4822,7 @@
         <v>140</v>
       </c>
       <c r="F134" s="13"/>
-      <c r="G134" s="4"/>
+      <c r="G134" s="20"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -4820,7 +4844,7 @@
         <v>141</v>
       </c>
       <c r="F135" s="13"/>
-      <c r="G135" s="4"/>
+      <c r="G135" s="20"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -4844,7 +4868,7 @@
       <c r="F136" s="13">
         <v>1</v>
       </c>
-      <c r="G136" s="1">
+      <c r="G136" s="19">
         <v>1</v>
       </c>
     </row>
@@ -4867,7 +4891,7 @@
       <c r="F137" s="13">
         <v>1</v>
       </c>
-      <c r="G137" s="1">
+      <c r="G137" s="19">
         <v>1</v>
       </c>
     </row>
@@ -5007,7 +5031,7 @@
       <c r="E143" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143" s="19">
         <v>1</v>
       </c>
       <c r="H143" s="1">
@@ -5031,7 +5055,7 @@
         <v>168</v>
       </c>
       <c r="F144" s="13"/>
-      <c r="G144" s="4"/>
+      <c r="G144" s="20"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -5053,7 +5077,7 @@
         <v>169</v>
       </c>
       <c r="F145" s="13"/>
-      <c r="G145" s="4"/>
+      <c r="G145" s="20"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
@@ -5077,7 +5101,7 @@
       <c r="F146" s="13">
         <v>1</v>
       </c>
-      <c r="G146" s="4"/>
+      <c r="G146" s="20"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4">
         <v>1</v>
@@ -5105,7 +5129,7 @@
       <c r="F147" s="13">
         <v>1</v>
       </c>
-      <c r="G147" s="4"/>
+      <c r="G147" s="20"/>
       <c r="H147" s="4">
         <v>1</v>
       </c>
@@ -5131,7 +5155,7 @@
       <c r="F148" s="13">
         <v>1</v>
       </c>
-      <c r="G148" s="4"/>
+      <c r="G148" s="20"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4">
         <v>1</v>
@@ -5157,7 +5181,7 @@
       <c r="F149" s="13">
         <v>1</v>
       </c>
-      <c r="G149" s="4">
+      <c r="G149" s="20">
         <v>1</v>
       </c>
       <c r="H149" s="4"/>
@@ -5185,7 +5209,7 @@
       <c r="F150" s="13">
         <v>1</v>
       </c>
-      <c r="G150" s="4"/>
+      <c r="G150" s="20"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4">
         <v>1</v>
@@ -5209,7 +5233,7 @@
         <v>175</v>
       </c>
       <c r="F151" s="13"/>
-      <c r="G151" s="4"/>
+      <c r="G151" s="20"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -5233,6 +5257,7 @@
       <c r="F152" s="13">
         <v>1</v>
       </c>
+      <c r="G152" s="19"/>
       <c r="H152" s="1">
         <v>1</v>
       </c>
@@ -5259,7 +5284,7 @@
       <c r="F153" s="13">
         <v>1</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G153" s="19">
         <v>1</v>
       </c>
     </row>
@@ -5282,6 +5307,7 @@
       <c r="F154" s="13">
         <v>1</v>
       </c>
+      <c r="G154" s="19"/>
       <c r="I154" s="1">
         <v>1</v>
       </c>
@@ -5305,6 +5331,7 @@
       <c r="F155" s="13">
         <v>1</v>
       </c>
+      <c r="G155" s="19"/>
       <c r="H155" s="1">
         <v>1</v>
       </c>
@@ -5328,6 +5355,7 @@
       <c r="F156" s="13">
         <v>1</v>
       </c>
+      <c r="G156" s="19"/>
       <c r="H156" s="1">
         <v>1</v>
       </c>
@@ -5354,7 +5382,7 @@
       <c r="F157" s="13">
         <v>1</v>
       </c>
-      <c r="G157" s="1">
+      <c r="G157" s="19">
         <v>1</v>
       </c>
       <c r="H157" s="1">
@@ -5380,7 +5408,7 @@
       <c r="F158" s="13">
         <v>1</v>
       </c>
-      <c r="G158" s="1">
+      <c r="G158" s="19">
         <v>1</v>
       </c>
       <c r="H158" s="1">
@@ -5404,6 +5432,7 @@
         <v>184</v>
       </c>
       <c r="F159" s="13"/>
+      <c r="G159" s="19"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -5422,6 +5451,7 @@
         <v>185</v>
       </c>
       <c r="F160" s="13"/>
+      <c r="G160" s="19"/>
     </row>
     <row r="161" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
@@ -5556,7 +5586,7 @@
       <c r="F165" s="13">
         <v>1</v>
       </c>
-      <c r="G165" s="4"/>
+      <c r="G165" s="20"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4">
         <v>1</v>
@@ -5580,7 +5610,7 @@
         <v>192</v>
       </c>
       <c r="F166" s="13"/>
-      <c r="G166" s="4">
+      <c r="G166" s="20">
         <v>1</v>
       </c>
       <c r="H166" s="4">
@@ -5610,7 +5640,7 @@
       <c r="F167" s="13">
         <v>1</v>
       </c>
-      <c r="G167" s="4">
+      <c r="G167" s="20">
         <v>1</v>
       </c>
       <c r="H167" s="4"/>
@@ -5638,7 +5668,7 @@
       <c r="F168" s="13">
         <v>1</v>
       </c>
-      <c r="G168" s="4">
+      <c r="G168" s="20">
         <v>1</v>
       </c>
       <c r="H168" s="4">
@@ -5668,7 +5698,7 @@
       <c r="F169" s="13">
         <v>1</v>
       </c>
-      <c r="G169" s="4"/>
+      <c r="G169" s="20"/>
       <c r="H169" s="4">
         <v>1</v>
       </c>
@@ -5696,7 +5726,7 @@
       <c r="F170" s="13">
         <v>1</v>
       </c>
-      <c r="G170" s="4">
+      <c r="G170" s="20">
         <v>1</v>
       </c>
       <c r="H170" s="4">
@@ -5726,7 +5756,7 @@
       <c r="F171" s="13">
         <v>1</v>
       </c>
-      <c r="G171" s="4">
+      <c r="G171" s="20">
         <v>1</v>
       </c>
       <c r="H171" s="4">
@@ -5756,7 +5786,7 @@
       <c r="F172" s="13">
         <v>1</v>
       </c>
-      <c r="G172" s="4">
+      <c r="G172" s="20">
         <v>1</v>
       </c>
       <c r="H172" s="4">
@@ -5784,7 +5814,7 @@
         <v>175</v>
       </c>
       <c r="F173" s="13"/>
-      <c r="G173" s="4"/>
+      <c r="G173" s="20"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -6030,7 +6060,7 @@
       <c r="F184" s="17">
         <v>1</v>
       </c>
-      <c r="G184" s="4">
+      <c r="G184" s="21">
         <v>1</v>
       </c>
       <c r="H184" s="4"/>
@@ -6056,7 +6086,7 @@
       <c r="F185" s="17">
         <v>1</v>
       </c>
-      <c r="G185" s="4">
+      <c r="G185" s="21">
         <v>1</v>
       </c>
       <c r="H185" s="4"/>
@@ -6082,7 +6112,7 @@
       <c r="F186" s="17">
         <v>1</v>
       </c>
-      <c r="G186" s="4">
+      <c r="G186" s="21">
         <v>1</v>
       </c>
       <c r="H186" s="4"/>
@@ -6108,7 +6138,7 @@
         <v>216</v>
       </c>
       <c r="F187" s="17"/>
-      <c r="G187" s="4"/>
+      <c r="G187" s="21"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
@@ -6130,7 +6160,7 @@
         <v>217</v>
       </c>
       <c r="F188" s="17"/>
-      <c r="G188" s="4"/>
+      <c r="G188" s="21"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
@@ -6699,6 +6729,7 @@
       <c r="F213" s="13">
         <v>1</v>
       </c>
+      <c r="G213" s="19"/>
     </row>
     <row r="214" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
@@ -6719,6 +6750,7 @@
       <c r="F214" s="13">
         <v>1</v>
       </c>
+      <c r="G214" s="19"/>
     </row>
     <row r="215" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
@@ -6739,6 +6771,7 @@
       <c r="F215" s="13">
         <v>1</v>
       </c>
+      <c r="G215" s="19"/>
       <c r="H215" s="1">
         <v>1</v>
       </c>
@@ -6762,7 +6795,7 @@
       <c r="F216" s="13">
         <v>1</v>
       </c>
-      <c r="G216" s="1">
+      <c r="G216" s="19">
         <v>1</v>
       </c>
     </row>
@@ -6785,7 +6818,7 @@
       <c r="F217" s="13">
         <v>1</v>
       </c>
-      <c r="G217" s="1">
+      <c r="G217" s="19">
         <v>1</v>
       </c>
       <c r="H217" s="1">
@@ -6809,6 +6842,7 @@
         <v>246</v>
       </c>
       <c r="F218" s="13"/>
+      <c r="G218" s="19"/>
     </row>
     <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
@@ -6829,7 +6863,7 @@
       <c r="F219" s="13">
         <v>1</v>
       </c>
-      <c r="G219" s="4"/>
+      <c r="G219" s="7"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
@@ -6853,7 +6887,7 @@
       <c r="F220" s="13">
         <v>1</v>
       </c>
-      <c r="G220" s="4">
+      <c r="G220" s="7">
         <v>1</v>
       </c>
       <c r="H220" s="4">
@@ -6881,7 +6915,7 @@
       <c r="F221" s="13">
         <v>1</v>
       </c>
-      <c r="G221" s="4">
+      <c r="G221" s="7">
         <v>1</v>
       </c>
       <c r="H221" s="4"/>
@@ -6905,7 +6939,7 @@
         <v>246</v>
       </c>
       <c r="F222" s="13"/>
-      <c r="G222" s="4"/>
+      <c r="G222" s="7"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
@@ -7161,7 +7195,7 @@
         <v>263</v>
       </c>
       <c r="F234" s="4"/>
-      <c r="G234" s="4">
+      <c r="G234" s="20">
         <v>1</v>
       </c>
       <c r="H234" s="4"/>
@@ -7184,7 +7218,7 @@
       <c r="E235" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G235" s="1">
+      <c r="G235" s="19">
         <v>1</v>
       </c>
     </row>
@@ -8057,7 +8091,7 @@
       <c r="F274" s="13">
         <v>1</v>
       </c>
-      <c r="G274" s="4">
+      <c r="G274" s="21">
         <v>1</v>
       </c>
       <c r="H274" s="12"/>
@@ -8535,7 +8569,7 @@
       <c r="F296" s="13">
         <v>1</v>
       </c>
-      <c r="G296" s="4">
+      <c r="G296" s="21">
         <v>1</v>
       </c>
       <c r="H296" s="12"/>
@@ -8647,7 +8681,7 @@
       <c r="F301" s="13">
         <v>1</v>
       </c>
-      <c r="G301" s="1">
+      <c r="G301" s="22">
         <v>1</v>
       </c>
       <c r="H301" s="12"/>
@@ -9391,7 +9425,7 @@
       <c r="F335" s="13">
         <v>1</v>
       </c>
-      <c r="G335" s="1">
+      <c r="G335" s="19">
         <v>1</v>
       </c>
       <c r="H335" s="12"/>
@@ -9594,6 +9628,7 @@
         <v>274</v>
       </c>
       <c r="F344" s="13"/>
+      <c r="G344" s="19"/>
       <c r="H344" s="12"/>
       <c r="I344" s="12"/>
     </row>
@@ -9616,7 +9651,7 @@
       <c r="F345" s="13">
         <v>1</v>
       </c>
-      <c r="G345" s="1">
+      <c r="G345" s="19">
         <v>1</v>
       </c>
       <c r="H345" s="12"/>
@@ -9641,7 +9676,7 @@
       <c r="F346" s="13">
         <v>1</v>
       </c>
-      <c r="G346" s="1">
+      <c r="G346" s="19">
         <v>1</v>
       </c>
       <c r="H346" s="12"/>
@@ -9664,6 +9699,7 @@
         <v>362</v>
       </c>
       <c r="F347" s="13"/>
+      <c r="G347" s="19"/>
       <c r="H347" s="12"/>
       <c r="I347" s="12"/>
     </row>
@@ -9684,6 +9720,7 @@
         <v>363</v>
       </c>
       <c r="F348" s="13"/>
+      <c r="G348" s="19"/>
       <c r="H348" s="12"/>
       <c r="I348" s="12"/>
     </row>
@@ -9704,6 +9741,7 @@
         <v>364</v>
       </c>
       <c r="F349" s="13"/>
+      <c r="G349" s="19"/>
       <c r="H349" s="12"/>
       <c r="I349" s="12"/>
     </row>
@@ -10916,7 +10954,7 @@
       <c r="E405" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="G405" s="1">
+      <c r="G405" s="19">
         <v>1</v>
       </c>
       <c r="H405" s="12"/>
@@ -10938,7 +10976,7 @@
       <c r="E406" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="G406" s="1">
+      <c r="G406" s="19">
         <v>1</v>
       </c>
       <c r="H406" s="12"/>
@@ -10960,7 +10998,7 @@
       <c r="E407" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G407" s="1">
+      <c r="G407" s="19">
         <v>1</v>
       </c>
       <c r="H407" s="12"/>
@@ -10982,7 +11020,7 @@
       <c r="E408" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="G408" s="1">
+      <c r="G408" s="19">
         <v>1</v>
       </c>
       <c r="H408" s="12"/>
@@ -11004,7 +11042,7 @@
       <c r="E409" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G409" s="1">
+      <c r="G409" s="19">
         <v>1</v>
       </c>
       <c r="H409" s="12"/>
@@ -11026,7 +11064,7 @@
       <c r="E410" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G410" s="1">
+      <c r="G410" s="19">
         <v>1</v>
       </c>
       <c r="H410" s="12"/>
@@ -11048,7 +11086,7 @@
       <c r="E411" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="G411" s="1">
+      <c r="G411" s="19">
         <v>1</v>
       </c>
       <c r="H411" s="12"/>
@@ -11070,7 +11108,7 @@
       <c r="E412" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="G412" s="1">
+      <c r="G412" s="19">
         <v>1</v>
       </c>
       <c r="H412" s="12"/>
@@ -11092,7 +11130,7 @@
       <c r="E413" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G413" s="1">
+      <c r="G413" s="19">
         <v>1</v>
       </c>
       <c r="H413" s="12"/>
@@ -11114,7 +11152,7 @@
       <c r="E414" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="G414" s="1">
+      <c r="G414" s="19">
         <v>1</v>
       </c>
       <c r="H414" s="12"/>
@@ -11136,7 +11174,7 @@
       <c r="E415" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="G415" s="1">
+      <c r="G415" s="19">
         <v>1</v>
       </c>
       <c r="H415" s="12"/>
@@ -11158,7 +11196,7 @@
       <c r="E416" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G416" s="1">
+      <c r="G416" s="19">
         <v>1</v>
       </c>
       <c r="H416" s="12"/>
@@ -11180,7 +11218,7 @@
       <c r="E417" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="G417" s="1">
+      <c r="G417" s="19">
         <v>1</v>
       </c>
       <c r="H417" s="12"/>

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1528,7 +1528,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1558,6 +1558,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -1851,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3326,14 +3329,14 @@
       <c r="D67" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="23" t="s">
         <v>83</v>
       </c>
       <c r="F67" s="13">
         <v>1</v>
       </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="4">
+      <c r="H67" s="20">
         <v>1</v>
       </c>
       <c r="I67" s="4">
@@ -3361,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4"/>
-      <c r="H68" s="4">
+      <c r="H68" s="20">
         <v>1</v>
       </c>
       <c r="I68" s="4">
@@ -3391,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="4">
+      <c r="H69" s="20">
         <v>1</v>
       </c>
       <c r="I69" s="4">
@@ -3872,6 +3875,7 @@
       <c r="F92" s="13">
         <v>1</v>
       </c>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -3892,7 +3896,7 @@
       <c r="F93" s="13">
         <v>1</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="13">
         <v>1</v>
       </c>
     </row>
@@ -3913,6 +3917,7 @@
         <v>114</v>
       </c>
       <c r="F94" s="13"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -3931,6 +3936,7 @@
         <v>115</v>
       </c>
       <c r="F95" s="13"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
@@ -3971,6 +3977,7 @@
         <v>119</v>
       </c>
       <c r="F97" s="13"/>
+      <c r="H97" s="13"/>
     </row>
     <row r="98" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -3991,7 +3998,7 @@
       <c r="F98" s="13">
         <v>1</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="13">
         <v>1</v>
       </c>
       <c r="I98" s="1">
@@ -4017,7 +4024,7 @@
       <c r="F99" s="13">
         <v>1</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="13">
         <v>1</v>
       </c>
       <c r="I99" s="1">
@@ -4043,6 +4050,7 @@
       <c r="F100" s="13">
         <v>1</v>
       </c>
+      <c r="H100" s="13"/>
       <c r="I100" s="1">
         <v>1</v>
       </c>
@@ -4066,7 +4074,7 @@
       <c r="F101" s="13">
         <v>1</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4087,6 +4095,7 @@
         <v>124</v>
       </c>
       <c r="F102" s="13"/>
+      <c r="H102" s="13"/>
     </row>
     <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
@@ -4108,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="13"/>
-      <c r="H103" s="4"/>
+      <c r="H103" s="20"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
@@ -4134,7 +4143,7 @@
       <c r="G104" s="13">
         <v>1</v>
       </c>
-      <c r="H104" s="4"/>
+      <c r="H104" s="20"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4">
         <v>1</v>
@@ -4160,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="13"/>
-      <c r="H105" s="4"/>
+      <c r="H105" s="20"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
@@ -4177,7 +4186,7 @@
       <c r="D106" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="23" t="s">
         <v>129</v>
       </c>
       <c r="F106" s="13">
@@ -4186,7 +4195,7 @@
       <c r="G106" s="13">
         <v>1</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="20">
         <v>1</v>
       </c>
       <c r="I106" s="4">
@@ -4216,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="13"/>
-      <c r="H107" s="4">
+      <c r="H107" s="20">
         <v>1</v>
       </c>
       <c r="I107" s="4">
@@ -4242,7 +4251,7 @@
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
-      <c r="H108" s="4"/>
+      <c r="H108" s="20"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
@@ -4446,7 +4455,7 @@
       <c r="G118" s="13">
         <v>1</v>
       </c>
-      <c r="H118" s="4"/>
+      <c r="H118" s="20"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
@@ -4472,7 +4481,7 @@
       <c r="G119" s="13">
         <v>1</v>
       </c>
-      <c r="H119" s="4">
+      <c r="H119" s="20">
         <v>1</v>
       </c>
       <c r="I119" s="4"/>
@@ -4498,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="13"/>
-      <c r="H120" s="4"/>
+      <c r="H120" s="20"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
@@ -4522,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="G121" s="13"/>
-      <c r="H121" s="4"/>
+      <c r="H121" s="20"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
@@ -4548,7 +4557,7 @@
       <c r="G122" s="13">
         <v>1</v>
       </c>
-      <c r="H122" s="4"/>
+      <c r="H122" s="20"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
@@ -4570,7 +4579,7 @@
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="13"/>
-      <c r="H123" s="4"/>
+      <c r="H123" s="20"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
     </row>
@@ -4592,7 +4601,7 @@
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="13"/>
-      <c r="H124" s="4"/>
+      <c r="H124" s="20"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
@@ -4614,7 +4623,7 @@
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="13"/>
-      <c r="H125" s="4"/>
+      <c r="H125" s="20"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
@@ -4640,6 +4649,7 @@
       <c r="G126" s="13">
         <v>1</v>
       </c>
+      <c r="H126" s="19"/>
       <c r="I126" s="1">
         <v>1</v>
       </c>
@@ -4666,7 +4676,7 @@
       <c r="G127" s="13">
         <v>1</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="19">
         <v>1</v>
       </c>
     </row>
@@ -4688,6 +4698,7 @@
       </c>
       <c r="F128" s="13"/>
       <c r="G128" s="13"/>
+      <c r="H128" s="19"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -4707,6 +4718,7 @@
       </c>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
+      <c r="H129" s="19"/>
     </row>
     <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -4726,6 +4738,7 @@
       </c>
       <c r="F130" s="13"/>
       <c r="G130" s="13"/>
+      <c r="H130" s="19"/>
     </row>
     <row r="131" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
@@ -5034,7 +5047,7 @@
       <c r="G143" s="19">
         <v>1</v>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="19">
         <v>1</v>
       </c>
     </row>
@@ -5078,7 +5091,7 @@
       </c>
       <c r="F145" s="13"/>
       <c r="G145" s="20"/>
-      <c r="H145" s="4"/>
+      <c r="H145" s="20"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
     </row>
@@ -5102,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="G146" s="20"/>
-      <c r="H146" s="4"/>
+      <c r="H146" s="20"/>
       <c r="I146" s="4">
         <v>1</v>
       </c>
@@ -5130,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="G147" s="20"/>
-      <c r="H147" s="4">
+      <c r="H147" s="20">
         <v>1</v>
       </c>
       <c r="I147" s="4"/>
@@ -5156,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="20"/>
-      <c r="H148" s="4"/>
+      <c r="H148" s="20"/>
       <c r="I148" s="4">
         <v>1</v>
       </c>
@@ -5184,7 +5197,7 @@
       <c r="G149" s="20">
         <v>1</v>
       </c>
-      <c r="H149" s="4"/>
+      <c r="H149" s="20"/>
       <c r="I149" s="4">
         <v>1</v>
       </c>
@@ -5210,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="G150" s="20"/>
-      <c r="H150" s="4"/>
+      <c r="H150" s="20"/>
       <c r="I150" s="4">
         <v>1</v>
       </c>
@@ -5234,7 +5247,7 @@
       </c>
       <c r="F151" s="13"/>
       <c r="G151" s="20"/>
-      <c r="H151" s="4"/>
+      <c r="H151" s="20"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
@@ -5258,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="19"/>
-      <c r="H152" s="1">
+      <c r="H152" s="19">
         <v>1</v>
       </c>
       <c r="I152" s="1">
@@ -5287,6 +5300,7 @@
       <c r="G153" s="19">
         <v>1</v>
       </c>
+      <c r="H153" s="19"/>
     </row>
     <row r="154" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
@@ -5308,6 +5322,7 @@
         <v>1</v>
       </c>
       <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
       <c r="I154" s="1">
         <v>1</v>
       </c>
@@ -5332,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="19"/>
-      <c r="H155" s="1">
+      <c r="H155" s="19">
         <v>1</v>
       </c>
     </row>
@@ -5356,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="19"/>
-      <c r="H156" s="1">
+      <c r="H156" s="19">
         <v>1</v>
       </c>
       <c r="I156" s="1">
@@ -5385,7 +5400,7 @@
       <c r="G157" s="19">
         <v>1</v>
       </c>
-      <c r="H157" s="1">
+      <c r="H157" s="19">
         <v>1</v>
       </c>
     </row>
@@ -5411,7 +5426,7 @@
       <c r="G158" s="19">
         <v>1</v>
       </c>
-      <c r="H158" s="1">
+      <c r="H158" s="19">
         <v>1</v>
       </c>
     </row>
@@ -5433,6 +5448,7 @@
       </c>
       <c r="F159" s="13"/>
       <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -5452,6 +5468,7 @@
       </c>
       <c r="F160" s="13"/>
       <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
     </row>
     <row r="161" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="4">

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1444,7 +1444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1470,6 +1470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -1521,14 +1527,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1541,29 +1548,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="5" builtinId="50"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -1854,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="H221" sqref="H221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,7 +5501,7 @@
       <c r="G161" s="4">
         <v>1</v>
       </c>
-      <c r="H161" s="4">
+      <c r="H161" s="20">
         <v>1</v>
       </c>
       <c r="I161" s="4">
@@ -5522,7 +5531,7 @@
       <c r="G162" s="4">
         <v>1</v>
       </c>
-      <c r="H162" s="4">
+      <c r="H162" s="20">
         <v>1</v>
       </c>
       <c r="I162" s="4">
@@ -5552,7 +5561,7 @@
       <c r="G163" s="4">
         <v>1</v>
       </c>
-      <c r="H163" s="4"/>
+      <c r="H163" s="20"/>
       <c r="I163" s="4">
         <v>1</v>
       </c>
@@ -5578,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
+      <c r="H164" s="20"/>
       <c r="I164" s="4">
         <v>1</v>
       </c>
@@ -5604,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="20"/>
-      <c r="H165" s="4"/>
+      <c r="H165" s="20"/>
       <c r="I165" s="4">
         <v>1</v>
       </c>
@@ -5630,7 +5639,7 @@
       <c r="G166" s="20">
         <v>1</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H166" s="21">
         <v>1</v>
       </c>
       <c r="I166" s="4">
@@ -5660,7 +5669,7 @@
       <c r="G167" s="20">
         <v>1</v>
       </c>
-      <c r="H167" s="4"/>
+      <c r="H167" s="20"/>
       <c r="I167" s="4">
         <v>1</v>
       </c>
@@ -5688,7 +5697,7 @@
       <c r="G168" s="20">
         <v>1</v>
       </c>
-      <c r="H168" s="4">
+      <c r="H168" s="20">
         <v>1</v>
       </c>
       <c r="I168" s="4">
@@ -5716,7 +5725,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="20"/>
-      <c r="H169" s="4">
+      <c r="H169" s="20">
         <v>1</v>
       </c>
       <c r="I169" s="4">
@@ -5746,7 +5755,7 @@
       <c r="G170" s="20">
         <v>1</v>
       </c>
-      <c r="H170" s="4">
+      <c r="H170" s="20">
         <v>1</v>
       </c>
       <c r="I170" s="4">
@@ -5776,7 +5785,7 @@
       <c r="G171" s="20">
         <v>1</v>
       </c>
-      <c r="H171" s="4">
+      <c r="H171" s="20">
         <v>1</v>
       </c>
       <c r="I171" s="4">
@@ -5806,7 +5815,7 @@
       <c r="G172" s="20">
         <v>1</v>
       </c>
-      <c r="H172" s="4">
+      <c r="H172" s="20">
         <v>1</v>
       </c>
       <c r="I172" s="4">
@@ -5832,7 +5841,7 @@
       </c>
       <c r="F173" s="13"/>
       <c r="G173" s="20"/>
-      <c r="H173" s="4"/>
+      <c r="H173" s="20"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
@@ -5855,7 +5864,7 @@
       <c r="F174" s="15">
         <v>1</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H174" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5876,7 +5885,7 @@
         <v>201</v>
       </c>
       <c r="F175" s="15"/>
-      <c r="H175" s="1">
+      <c r="H175" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5897,6 +5906,7 @@
         <v>202</v>
       </c>
       <c r="F176" s="15"/>
+      <c r="H176" s="13"/>
       <c r="I176" s="16"/>
     </row>
     <row r="177" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -5918,6 +5928,7 @@
       <c r="F177" s="15">
         <v>1</v>
       </c>
+      <c r="H177" s="13"/>
     </row>
     <row r="178" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
@@ -5936,6 +5947,7 @@
         <v>204</v>
       </c>
       <c r="F178" s="15"/>
+      <c r="H178" s="13"/>
     </row>
     <row r="179" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
@@ -5957,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="4"/>
-      <c r="H179" s="4">
+      <c r="H179" s="20">
         <v>1</v>
       </c>
       <c r="I179" s="4"/>
@@ -5983,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="4"/>
-      <c r="H180" s="4">
+      <c r="H180" s="20">
         <v>1</v>
       </c>
       <c r="I180" s="4"/>
@@ -6007,7 +6019,7 @@
       </c>
       <c r="F181" s="17"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
+      <c r="H181" s="20"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
@@ -6030,7 +6042,7 @@
       <c r="F182" s="15">
         <v>1</v>
       </c>
-      <c r="H182" s="1">
+      <c r="H182" s="13">
         <v>1</v>
       </c>
       <c r="I182" s="1">
@@ -6057,6 +6069,7 @@
         <v>211</v>
       </c>
       <c r="F183" s="15"/>
+      <c r="H183" s="13"/>
     </row>
     <row r="184" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
@@ -6283,7 +6296,7 @@
       <c r="F193" s="13">
         <v>1</v>
       </c>
-      <c r="H193" s="1">
+      <c r="H193" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6306,7 +6319,7 @@
       <c r="F194" s="13">
         <v>1</v>
       </c>
-      <c r="H194" s="1">
+      <c r="H194" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6329,7 +6342,7 @@
       <c r="F195" s="13">
         <v>1</v>
       </c>
-      <c r="H195" s="1">
+      <c r="H195" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6350,7 +6363,7 @@
         <v>228</v>
       </c>
       <c r="F196" s="13"/>
-      <c r="H196" s="1">
+      <c r="H196" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6373,7 +6386,7 @@
       <c r="F197" s="13">
         <v>1</v>
       </c>
-      <c r="H197" s="1">
+      <c r="H197" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6394,7 +6407,7 @@
         <v>229</v>
       </c>
       <c r="F198" s="13"/>
-      <c r="H198" s="1">
+      <c r="H198" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6415,7 +6428,7 @@
         <v>230</v>
       </c>
       <c r="F199" s="13"/>
-      <c r="H199" s="1">
+      <c r="H199" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6436,6 +6449,7 @@
         <v>231</v>
       </c>
       <c r="F200" s="13"/>
+      <c r="H200" s="13"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
@@ -6456,6 +6470,7 @@
       <c r="F201" s="13">
         <v>1</v>
       </c>
+      <c r="H201" s="13"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
@@ -6476,6 +6491,7 @@
       <c r="F202" s="13">
         <v>1</v>
       </c>
+      <c r="H202" s="13"/>
     </row>
     <row r="203" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
@@ -6494,6 +6510,7 @@
         <v>221</v>
       </c>
       <c r="F203" s="13"/>
+      <c r="H203" s="13"/>
     </row>
     <row r="204" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
@@ -6515,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="G204" s="4"/>
-      <c r="H204" s="4">
+      <c r="H204" s="24">
         <v>1</v>
       </c>
       <c r="I204" s="4">
@@ -6543,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="G205" s="4"/>
-      <c r="H205" s="4">
+      <c r="H205" s="24">
         <v>1</v>
       </c>
       <c r="I205" s="4">
@@ -6571,7 +6588,7 @@
         <v>1</v>
       </c>
       <c r="G206" s="4"/>
-      <c r="H206" s="4">
+      <c r="H206" s="24">
         <v>1</v>
       </c>
       <c r="I206" s="4">
@@ -6599,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="G207" s="4"/>
-      <c r="H207" s="4"/>
+      <c r="H207" s="24"/>
       <c r="I207" s="4">
         <v>1</v>
       </c>
@@ -6625,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="G208" s="4"/>
-      <c r="H208" s="4"/>
+      <c r="H208" s="24"/>
       <c r="I208" s="4">
         <v>1</v>
       </c>
@@ -6651,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
+      <c r="H209" s="24"/>
       <c r="I209" s="4">
         <v>1</v>
       </c>
@@ -6677,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="G210" s="4"/>
-      <c r="H210" s="4"/>
+      <c r="H210" s="24"/>
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
@@ -6701,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
+      <c r="H211" s="24"/>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
     </row>
@@ -6723,7 +6740,7 @@
       </c>
       <c r="F212" s="13"/>
       <c r="G212" s="4"/>
-      <c r="H212" s="4"/>
+      <c r="H212" s="24"/>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
     </row>
@@ -6747,6 +6764,7 @@
         <v>1</v>
       </c>
       <c r="G213" s="19"/>
+      <c r="H213" s="13"/>
     </row>
     <row r="214" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
@@ -6768,6 +6786,7 @@
         <v>1</v>
       </c>
       <c r="G214" s="19"/>
+      <c r="H214" s="13"/>
     </row>
     <row r="215" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
@@ -6789,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="G215" s="19"/>
-      <c r="H215" s="1">
+      <c r="H215" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6815,6 +6834,7 @@
       <c r="G216" s="19">
         <v>1</v>
       </c>
+      <c r="H216" s="13"/>
     </row>
     <row r="217" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
@@ -6838,7 +6858,7 @@
       <c r="G217" s="19">
         <v>1</v>
       </c>
-      <c r="H217" s="1">
+      <c r="H217" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6860,6 +6880,7 @@
       </c>
       <c r="F218" s="13"/>
       <c r="G218" s="19"/>
+      <c r="H218" s="13"/>
     </row>
     <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
@@ -6881,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="G219" s="7"/>
-      <c r="H219" s="4"/>
+      <c r="H219" s="20"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
     </row>
@@ -6907,7 +6928,7 @@
       <c r="G220" s="7">
         <v>1</v>
       </c>
-      <c r="H220" s="4">
+      <c r="H220" s="20">
         <v>1</v>
       </c>
       <c r="I220" s="4"/>
@@ -6935,7 +6956,7 @@
       <c r="G221" s="7">
         <v>1</v>
       </c>
-      <c r="H221" s="4"/>
+      <c r="H221" s="20"/>
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
     </row>
@@ -6957,7 +6978,7 @@
       </c>
       <c r="F222" s="13"/>
       <c r="G222" s="7"/>
-      <c r="H222" s="4"/>
+      <c r="H222" s="20"/>
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
     </row>

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="H221" sqref="H221"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="J431" sqref="J431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2146,7 @@
       <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       <c r="E17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       <c r="E18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="E19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="20"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="4">
+      <c r="J55" s="20">
         <v>1</v>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="I56" s="4">
         <v>1</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="20">
         <v>1</v>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="19"/>
-      <c r="J61" s="1">
+      <c r="J61" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       <c r="I68" s="4">
         <v>1</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J68" s="20">
         <v>1</v>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="H104" s="20"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="4">
+      <c r="J104" s="20">
         <v>1</v>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       <c r="I106" s="4">
         <v>1</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J106" s="20">
         <v>1</v>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
         <v>133</v>
       </c>
       <c r="F109" s="13"/>
-      <c r="J109" s="1">
+      <c r="J109" s="19">
         <v>1</v>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
-      <c r="J138" s="4">
+      <c r="J138" s="20">
         <v>1</v>
       </c>
     </row>
@@ -5128,7 +5128,7 @@
       <c r="I146" s="4">
         <v>1</v>
       </c>
-      <c r="J146" s="4">
+      <c r="J146" s="20">
         <v>1</v>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
       <c r="I182" s="1">
         <v>1</v>
       </c>
-      <c r="J182" s="1">
+      <c r="J182" s="19">
         <v>1</v>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
-      <c r="J186" s="4">
+      <c r="J186" s="20">
         <v>1</v>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
-      <c r="J192" s="4">
+      <c r="J192" s="20">
         <v>1</v>
       </c>
     </row>
@@ -7001,6 +7001,7 @@
       <c r="F223" s="13">
         <v>1</v>
       </c>
+      <c r="H223" s="19"/>
     </row>
     <row r="224" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
@@ -7021,7 +7022,7 @@
       <c r="F224" s="13">
         <v>1</v>
       </c>
-      <c r="H224" s="1">
+      <c r="H224" s="19">
         <v>1</v>
       </c>
     </row>
@@ -7044,6 +7045,7 @@
       <c r="F225" s="13">
         <v>1</v>
       </c>
+      <c r="H225" s="19"/>
       <c r="I225" s="1">
         <v>1</v>
       </c>
@@ -7067,6 +7069,7 @@
       <c r="F226" s="13">
         <v>1</v>
       </c>
+      <c r="H226" s="19"/>
     </row>
     <row r="227" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
@@ -7087,7 +7090,7 @@
       <c r="F227" s="13">
         <v>1</v>
       </c>
-      <c r="H227" s="1">
+      <c r="H227" s="19">
         <v>1</v>
       </c>
       <c r="I227" s="1">
@@ -7113,7 +7116,7 @@
       <c r="F228" s="13">
         <v>1</v>
       </c>
-      <c r="H228" s="1">
+      <c r="H228" s="19">
         <v>1</v>
       </c>
       <c r="I228" s="1">
@@ -7139,6 +7142,7 @@
       <c r="F229" s="13">
         <v>1</v>
       </c>
+      <c r="H229" s="19"/>
     </row>
     <row r="230" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
@@ -7157,6 +7161,7 @@
         <v>259</v>
       </c>
       <c r="F230" s="13"/>
+      <c r="H230" s="19"/>
     </row>
     <row r="231" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
@@ -7177,6 +7182,7 @@
       <c r="F231" s="13">
         <v>1</v>
       </c>
+      <c r="H231" s="19"/>
     </row>
     <row r="232" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
@@ -7197,6 +7203,7 @@
       <c r="F232" s="13">
         <v>1</v>
       </c>
+      <c r="H232" s="19"/>
     </row>
     <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
@@ -7215,6 +7222,7 @@
         <v>246</v>
       </c>
       <c r="F233" s="13"/>
+      <c r="H233" s="19"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
@@ -7280,7 +7288,7 @@
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
-      <c r="J236" s="4">
+      <c r="J236" s="20">
         <v>1</v>
       </c>
     </row>
@@ -7425,7 +7433,7 @@
         <v>1</v>
       </c>
       <c r="I242" s="12"/>
-      <c r="J242" s="1">
+      <c r="J242" s="19">
         <v>1</v>
       </c>
     </row>
@@ -7448,7 +7456,7 @@
       <c r="F243" s="13"/>
       <c r="H243" s="12"/>
       <c r="I243" s="12"/>
-      <c r="J243" s="1">
+      <c r="J243" s="19">
         <v>1</v>
       </c>
     </row>
@@ -11416,7 +11424,7 @@
       <c r="E424" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="J424" s="1">
+      <c r="J424" s="19">
         <v>1</v>
       </c>
     </row>
@@ -11567,7 +11575,7 @@
       <c r="E431" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="J431" s="1">
+      <c r="J431" s="19">
         <v>1</v>
       </c>
     </row>

--- a/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
+++ b/Extended Campuses/Self Appraisals/2015/Raw Data from SQL Query for 2015.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="J431" sqref="J431"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
